--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9884066596367003</v>
+        <v>0.9960719200857265</v>
       </c>
       <c r="D2">
-        <v>1.010211460024062</v>
+        <v>1.013754734590127</v>
       </c>
       <c r="E2">
-        <v>0.9939885981890296</v>
+        <v>1.008796858596218</v>
       </c>
       <c r="F2">
-        <v>1.006902614108125</v>
+        <v>1.011099954373326</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042070276253432</v>
+        <v>1.040082561983393</v>
       </c>
       <c r="J2">
-        <v>1.010939742559233</v>
+        <v>1.018370757488874</v>
       </c>
       <c r="K2">
-        <v>1.021530342734864</v>
+        <v>1.025025713144928</v>
       </c>
       <c r="L2">
-        <v>1.005532321597157</v>
+        <v>1.020134984659643</v>
       </c>
       <c r="M2">
-        <v>1.018266614931468</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.022406785195574</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9979655605677821</v>
+        <v>1.003375308683609</v>
       </c>
       <c r="D3">
-        <v>1.017732006986607</v>
+        <v>1.019180815076977</v>
       </c>
       <c r="E3">
-        <v>1.002273549949509</v>
+        <v>1.015225601536934</v>
       </c>
       <c r="F3">
-        <v>1.015717575432893</v>
+        <v>1.018305697144545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045625955210525</v>
+        <v>1.041917739285658</v>
       </c>
       <c r="J3">
-        <v>1.018511840520425</v>
+        <v>1.023774380397948</v>
       </c>
       <c r="K3">
-        <v>1.02814292137417</v>
+        <v>1.029574017898054</v>
       </c>
       <c r="L3">
-        <v>1.012877422700481</v>
+        <v>1.025667305074217</v>
       </c>
       <c r="M3">
-        <v>1.026153220558466</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.028709590720577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003910791119385</v>
+        <v>1.007961681175462</v>
       </c>
       <c r="D4">
-        <v>1.022412583217116</v>
+        <v>1.02258989587162</v>
       </c>
       <c r="E4">
-        <v>1.007427149399989</v>
+        <v>1.019269368930189</v>
       </c>
       <c r="F4">
-        <v>1.021209730888923</v>
+        <v>1.022839837808977</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047821361954912</v>
+        <v>1.043057089151443</v>
       </c>
       <c r="J4">
-        <v>1.023214984756973</v>
+        <v>1.027163895938898</v>
       </c>
       <c r="K4">
-        <v>1.032247828968244</v>
+        <v>1.032423116299206</v>
       </c>
       <c r="L4">
-        <v>1.017436754189016</v>
+        <v>1.029140661934586</v>
       </c>
       <c r="M4">
-        <v>1.031058738933248</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.032670204788689</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006356868640644</v>
+        <v>1.009858260330101</v>
       </c>
       <c r="D5">
-        <v>1.024338915253385</v>
+        <v>1.023999900271694</v>
       </c>
       <c r="E5">
-        <v>1.009547581184213</v>
+        <v>1.020943082947615</v>
       </c>
       <c r="F5">
-        <v>1.023471549068648</v>
+        <v>1.024716938666424</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048720685784659</v>
+        <v>1.043525026305944</v>
       </c>
       <c r="J5">
-        <v>1.025148408515052</v>
+        <v>1.028564553952784</v>
       </c>
       <c r="K5">
-        <v>1.033934738778163</v>
+        <v>1.03359948440324</v>
       </c>
       <c r="L5">
-        <v>1.019310380062108</v>
+        <v>1.030576714383035</v>
       </c>
       <c r="M5">
-        <v>1.033077000174649</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.034308572481846</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006764562696143</v>
+        <v>1.010174906032189</v>
       </c>
       <c r="D6">
-        <v>1.02466001135491</v>
+        <v>1.024235321407678</v>
       </c>
       <c r="E6">
-        <v>1.009900999487325</v>
+        <v>1.021222606820248</v>
       </c>
       <c r="F6">
-        <v>1.023848654474026</v>
+        <v>1.025030455435989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04887034393133</v>
+        <v>1.043602960460929</v>
       </c>
       <c r="J6">
-        <v>1.025470559853751</v>
+        <v>1.028798342331986</v>
       </c>
       <c r="K6">
-        <v>1.034215779939373</v>
+        <v>1.03379577765554</v>
       </c>
       <c r="L6">
-        <v>1.019622527857751</v>
+        <v>1.030816454636861</v>
       </c>
       <c r="M6">
-        <v>1.033413382850613</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.034582139012684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003943679999419</v>
+        <v>1.00798714493364</v>
       </c>
       <c r="D7">
-        <v>1.022438481749662</v>
+        <v>1.022608825913657</v>
       </c>
       <c r="E7">
-        <v>1.007455659695043</v>
+        <v>1.019291834571534</v>
       </c>
       <c r="F7">
-        <v>1.021240133963064</v>
+        <v>1.022865031729786</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047833469616799</v>
+        <v>1.043063384548867</v>
       </c>
       <c r="J7">
-        <v>1.023240987234029</v>
+        <v>1.027182705394737</v>
       </c>
       <c r="K7">
-        <v>1.032270518464276</v>
+        <v>1.032438917656413</v>
       </c>
       <c r="L7">
-        <v>1.017461955137271</v>
+        <v>1.029159943737301</v>
       </c>
       <c r="M7">
-        <v>1.031085875919034</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.032692199646271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9916894968010794</v>
+        <v>0.9985701592262397</v>
       </c>
       <c r="D8">
-        <v>1.012793487807464</v>
+        <v>1.015610390833329</v>
       </c>
       <c r="E8">
-        <v>0.9968336955707532</v>
+        <v>1.010994455426532</v>
       </c>
       <c r="F8">
-        <v>1.009927810812216</v>
+        <v>1.013562836081043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043294770454376</v>
+        <v>1.0407130351267</v>
       </c>
       <c r="J8">
-        <v>1.013541546650718</v>
+        <v>1.02021991958191</v>
       </c>
       <c r="K8">
-        <v>1.023802907498591</v>
+        <v>1.026582981022079</v>
       </c>
       <c r="L8">
-        <v>1.008056727973637</v>
+        <v>1.022027531162118</v>
       </c>
       <c r="M8">
-        <v>1.020974962112455</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.024562171492266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9680406350427292</v>
+        <v>0.9808167473620539</v>
       </c>
       <c r="D9">
-        <v>0.9942151660449824</v>
+        <v>1.002436061495137</v>
       </c>
       <c r="E9">
-        <v>0.9763469164597014</v>
+        <v>0.9954100531110123</v>
       </c>
       <c r="F9">
-        <v>0.9881852005012804</v>
+        <v>0.9961027873986745</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034406989433945</v>
+        <v>1.036179044893043</v>
       </c>
       <c r="J9">
-        <v>0.9947747299726988</v>
+        <v>1.007065589143187</v>
       </c>
       <c r="K9">
-        <v>1.007402800618341</v>
+        <v>1.015489738559596</v>
       </c>
       <c r="L9">
-        <v>0.9898357712553585</v>
+        <v>1.008578040562704</v>
       </c>
       <c r="M9">
-        <v>1.001472917911207</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.009259412207731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505289592079711</v>
+        <v>0.9680569055617866</v>
       </c>
       <c r="D10">
-        <v>0.9804980906635341</v>
+        <v>0.992990638207158</v>
       </c>
       <c r="E10">
-        <v>0.9611957686605371</v>
+        <v>0.984255660493514</v>
       </c>
       <c r="F10">
-        <v>0.9721610174356652</v>
+        <v>0.9836114061971218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02774461451815</v>
+        <v>1.032855265328754</v>
       </c>
       <c r="J10">
-        <v>0.9808528094669535</v>
+        <v>0.9975978190607179</v>
       </c>
       <c r="K10">
-        <v>0.9952286175765872</v>
+        <v>1.007487612713285</v>
       </c>
       <c r="L10">
-        <v>0.9763028659052566</v>
+        <v>0.9989151239895735</v>
       </c>
       <c r="M10">
-        <v>0.9870517876509128</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>0.9982830034889895</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9424276833827486</v>
+        <v>0.9622745141800357</v>
       </c>
       <c r="D11">
-        <v>0.9741661878619419</v>
+        <v>0.9887183476651087</v>
       </c>
       <c r="E11">
-        <v>0.954194130163917</v>
+        <v>0.9792136293311873</v>
       </c>
       <c r="F11">
-        <v>0.9647702038910653</v>
+        <v>0.9779657045993955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024645214810443</v>
+        <v>1.03133484719414</v>
       </c>
       <c r="J11">
-        <v>0.974408434230992</v>
+        <v>0.9933055213529486</v>
       </c>
       <c r="K11">
-        <v>0.9895923094034434</v>
+        <v>1.003856202318142</v>
       </c>
       <c r="L11">
-        <v>0.9700348576700447</v>
+        <v>0.9945384889400355</v>
       </c>
       <c r="M11">
-        <v>0.9803885555855433</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.9933154721780403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9393293811584721</v>
+        <v>0.9600842585544983</v>
       </c>
       <c r="D12">
-        <v>0.971747122367444</v>
+        <v>0.9871015518223019</v>
       </c>
       <c r="E12">
-        <v>0.9515178484089295</v>
+        <v>0.9773059040994022</v>
       </c>
       <c r="F12">
-        <v>0.9619474105688754</v>
+        <v>0.9758296133753601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023457485183456</v>
+        <v>1.030756934610463</v>
       </c>
       <c r="J12">
-        <v>0.9719434731768969</v>
+        <v>0.9916795523791633</v>
       </c>
       <c r="K12">
-        <v>0.9874363862444127</v>
+        <v>1.002480109261119</v>
       </c>
       <c r="L12">
-        <v>0.9676368123342189</v>
+        <v>0.9928811965850954</v>
       </c>
       <c r="M12">
-        <v>0.9778418463197371</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9914350071990814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9399982169775564</v>
+        <v>0.9605560613001554</v>
       </c>
       <c r="D13">
-        <v>0.9722692072366486</v>
+        <v>0.9874497553800599</v>
       </c>
       <c r="E13">
-        <v>0.9520955098776356</v>
+        <v>0.977716749435678</v>
       </c>
       <c r="F13">
-        <v>0.9625565928332889</v>
+        <v>0.976289638501217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023713985609256</v>
+        <v>1.030881511244453</v>
       </c>
       <c r="J13">
-        <v>0.9724755993222768</v>
+        <v>0.9920298057815182</v>
       </c>
       <c r="K13">
-        <v>0.9879017988606551</v>
+        <v>1.002776556763604</v>
       </c>
       <c r="L13">
-        <v>0.9681545172429101</v>
+        <v>0.9932381691741458</v>
       </c>
       <c r="M13">
-        <v>0.978391529161324</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9918400242557992</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9421734683166366</v>
+        <v>0.9620943558466097</v>
       </c>
       <c r="D14">
-        <v>0.9739676496610118</v>
+        <v>0.9885853277897866</v>
       </c>
       <c r="E14">
-        <v>0.9539745100275308</v>
+        <v>0.9790566668316846</v>
       </c>
       <c r="F14">
-        <v>0.9645385147579929</v>
+        <v>0.9777899522920734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024547808477983</v>
+        <v>1.031287351265883</v>
       </c>
       <c r="J14">
-        <v>0.9742061899130136</v>
+        <v>0.9931717799528181</v>
       </c>
       <c r="K14">
-        <v>0.9894154212489095</v>
+        <v>1.003743023311037</v>
       </c>
       <c r="L14">
-        <v>0.9698381145389479</v>
+        <v>0.9944021584026798</v>
       </c>
       <c r="M14">
-        <v>0.9801795635173456</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9931607716013138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9435015263490383</v>
+        <v>0.9630364079455522</v>
       </c>
       <c r="D15">
-        <v>0.9750049492767459</v>
+        <v>0.9892809527857537</v>
       </c>
       <c r="E15">
-        <v>0.9551219004106756</v>
+        <v>0.9798775136238831</v>
       </c>
       <c r="F15">
-        <v>0.9657490503032128</v>
+        <v>0.9787090630563228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025056579151848</v>
+        <v>1.031535627738005</v>
       </c>
       <c r="J15">
-        <v>0.9752627328765107</v>
+        <v>0.9938711123393369</v>
       </c>
       <c r="K15">
-        <v>0.9903395000203028</v>
+        <v>1.004334816227596</v>
       </c>
       <c r="L15">
-        <v>0.9708658968584427</v>
+        <v>0.9951150547566054</v>
       </c>
       <c r="M15">
-        <v>0.9812714376359923</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9939697515818904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9510547827691764</v>
+        <v>0.968434933037571</v>
       </c>
       <c r="D16">
-        <v>0.9809093921817094</v>
+        <v>0.9932701295125097</v>
       </c>
       <c r="E16">
-        <v>0.961650400479228</v>
+        <v>0.9845855654336167</v>
       </c>
       <c r="F16">
-        <v>0.9726412200179261</v>
+        <v>0.9839808189870606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02794544854359</v>
+        <v>1.032954380352725</v>
       </c>
       <c r="J16">
-        <v>0.9812710306230319</v>
+        <v>0.9978784049977593</v>
       </c>
       <c r="K16">
-        <v>0.9955943857478023</v>
+        <v>1.007724927800406</v>
       </c>
       <c r="L16">
-        <v>0.9767095663275167</v>
+        <v>0.9992013087830908</v>
       </c>
       <c r="M16">
-        <v>0.9874844726164053</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9986079078604716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9556466775435902</v>
+        <v>0.9717498963356244</v>
       </c>
       <c r="D17">
-        <v>0.9845027886878936</v>
+        <v>0.99572195893183</v>
       </c>
       <c r="E17">
-        <v>0.9656214740500141</v>
+        <v>0.9874800006359531</v>
       </c>
       <c r="F17">
-        <v>0.9768372487636691</v>
+        <v>0.9872219479918892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029697384867144</v>
+        <v>1.033821945531265</v>
       </c>
       <c r="J17">
-        <v>0.9849228586056472</v>
+        <v>1.000338707287306</v>
       </c>
       <c r="K17">
-        <v>0.9987881081194123</v>
+        <v>1.009805415807181</v>
       </c>
       <c r="L17">
-        <v>0.980260385362861</v>
+        <v>1.001711170653203</v>
       </c>
       <c r="M17">
-        <v>0.9912639707812735</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.001457794646077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9582758811268952</v>
+        <v>0.9736589120843202</v>
       </c>
       <c r="D18">
-        <v>0.9865615336965589</v>
+        <v>0.9971346578909867</v>
       </c>
       <c r="E18">
-        <v>0.967895892445354</v>
+        <v>0.989148034504497</v>
       </c>
       <c r="F18">
-        <v>0.9792418258959199</v>
+        <v>0.9890898459892368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030698886213888</v>
+        <v>1.034320218237508</v>
       </c>
       <c r="J18">
-        <v>0.9870134346014795</v>
+        <v>1.001755365792408</v>
       </c>
       <c r="K18">
-        <v>1.000616335745658</v>
+        <v>1.011003034850111</v>
       </c>
       <c r="L18">
-        <v>0.9822927920053445</v>
+        <v>1.003156753623425</v>
       </c>
       <c r="M18">
-        <v>0.993428758094632</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003099598397187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9591643353541877</v>
+        <v>0.9743057799280936</v>
       </c>
       <c r="D19">
-        <v>0.9872574209983757</v>
+        <v>0.9976134686025221</v>
       </c>
       <c r="E19">
-        <v>0.9686645655923219</v>
+        <v>0.9897134432348903</v>
       </c>
       <c r="F19">
-        <v>0.9800547087114182</v>
+        <v>0.9897230153084735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031037031815311</v>
+        <v>1.034488826787974</v>
       </c>
       <c r="J19">
-        <v>0.9877198082987773</v>
+        <v>1.002235365243055</v>
       </c>
       <c r="K19">
-        <v>1.00123404726849</v>
+        <v>1.011408758852613</v>
       </c>
       <c r="L19">
-        <v>0.982979452463695</v>
+        <v>1.003646619094622</v>
       </c>
       <c r="M19">
-        <v>0.9941603938887815</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003656022371982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9551591703716412</v>
+        <v>0.9713967966821283</v>
       </c>
       <c r="D20">
-        <v>0.984121155143168</v>
+        <v>0.9954607187118382</v>
       </c>
       <c r="E20">
-        <v>0.9651998044687509</v>
+        <v>0.9871715693781017</v>
       </c>
       <c r="F20">
-        <v>0.9763915544737045</v>
+        <v>0.9868765663547465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029511553927019</v>
+        <v>1.033729673561149</v>
       </c>
       <c r="J20">
-        <v>0.9845351923225627</v>
+        <v>1.000076660913739</v>
       </c>
       <c r="K20">
-        <v>0.99844908211036</v>
+        <v>1.00958385829758</v>
       </c>
       <c r="L20">
-        <v>0.9798834776688367</v>
+        <v>1.001443805372555</v>
       </c>
       <c r="M20">
-        <v>0.9908626335828388</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001154168609396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.94153547340983</v>
+        <v>0.9616425701520597</v>
       </c>
       <c r="D21">
-        <v>0.9734694276253092</v>
+        <v>0.9882517763086693</v>
       </c>
       <c r="E21">
-        <v>0.9534233616051166</v>
+        <v>0.9786630839917982</v>
       </c>
       <c r="F21">
-        <v>0.9639571149278761</v>
+        <v>0.9773492545327025</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024303313815328</v>
+        <v>1.03116821318035</v>
       </c>
       <c r="J21">
-        <v>0.9736986197513133</v>
+        <v>0.9928363930589</v>
       </c>
       <c r="K21">
-        <v>0.9889714867647498</v>
+        <v>1.003459193859512</v>
       </c>
       <c r="L21">
-        <v>0.9693443419641551</v>
+        <v>0.9940602887134936</v>
       </c>
       <c r="M21">
-        <v>0.9796550905766173</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9927728454827118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9324465989718796</v>
+        <v>0.9552620297205053</v>
       </c>
       <c r="D22">
-        <v>0.9663785520666996</v>
+        <v>0.9835448924843038</v>
       </c>
       <c r="E22">
-        <v>0.9455757178258635</v>
+        <v>0.9731097920587101</v>
       </c>
       <c r="F22">
-        <v>0.9556842703762856</v>
+        <v>0.971131205117184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020814851513834</v>
+        <v>1.029480999110478</v>
       </c>
       <c r="J22">
-        <v>0.9664673263590513</v>
+        <v>0.9880996207321243</v>
       </c>
       <c r="K22">
-        <v>0.9826468336697555</v>
+        <v>0.9994495313912718</v>
       </c>
       <c r="L22">
-        <v>0.962308335071916</v>
+        <v>0.989233456965621</v>
       </c>
       <c r="M22">
-        <v>0.9721878938283129</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9872971030379607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9373187778782117</v>
+        <v>0.9586693457400776</v>
       </c>
       <c r="D23">
-        <v>0.9701780841271006</v>
+        <v>0.986057541789144</v>
       </c>
       <c r="E23">
-        <v>0.9497815707311857</v>
+        <v>0.976074121144036</v>
       </c>
       <c r="F23">
-        <v>0.9601167287631607</v>
+        <v>0.9744503822218717</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022686083560097</v>
+        <v>1.030383051194</v>
       </c>
       <c r="J23">
-        <v>0.9703438080414388</v>
+        <v>0.9906291520274487</v>
       </c>
       <c r="K23">
-        <v>0.9860372753602711</v>
+        <v>1.001591006733278</v>
       </c>
       <c r="L23">
-        <v>0.9660804214447691</v>
+        <v>0.9918107374537883</v>
       </c>
       <c r="M23">
-        <v>0.9761897018842042</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9902205595992353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9553796050061776</v>
+        <v>0.9715564227932416</v>
       </c>
       <c r="D24">
-        <v>0.9842937133416423</v>
+        <v>0.9955788155460934</v>
       </c>
       <c r="E24">
-        <v>0.9653904674212935</v>
+        <v>0.9873109985149021</v>
       </c>
       <c r="F24">
-        <v>0.9765930763940613</v>
+        <v>0.9870326990287777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029595585577683</v>
+        <v>1.033771391212487</v>
       </c>
       <c r="J24">
-        <v>0.9847104833721172</v>
+        <v>1.000195125036254</v>
       </c>
       <c r="K24">
-        <v>0.9986023797914054</v>
+        <v>1.009684019553426</v>
       </c>
       <c r="L24">
-        <v>0.9800539050809658</v>
+        <v>1.001564672825544</v>
       </c>
       <c r="M24">
-        <v>0.9910441027197142</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001291427231096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9744317390129716</v>
+        <v>0.9855577113879647</v>
       </c>
       <c r="D25">
-        <v>0.9992304982929073</v>
+        <v>1.005951002609145</v>
       </c>
       <c r="E25">
-        <v>0.9818811226865379</v>
+        <v>0.9995644059260189</v>
       </c>
       <c r="F25">
-        <v>0.9940496047657348</v>
+        <v>1.000756012828753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036823055601449</v>
+        <v>1.037401273378723</v>
       </c>
       <c r="J25">
-        <v>0.999851315667721</v>
+        <v>1.01058108688109</v>
       </c>
       <c r="K25">
-        <v>1.011840771540644</v>
+        <v>1.018457634041789</v>
       </c>
       <c r="L25">
-        <v>0.9947673774535361</v>
+        <v>1.012169487696931</v>
       </c>
       <c r="M25">
-        <v>1.006741000652542</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.013342603997395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9960719200857265</v>
+        <v>1.003435200052894</v>
       </c>
       <c r="D2">
-        <v>1.013754734590127</v>
+        <v>1.020185237743593</v>
       </c>
       <c r="E2">
-        <v>1.008796858596218</v>
+        <v>1.009397277373848</v>
       </c>
       <c r="F2">
-        <v>1.011099954373326</v>
+        <v>1.008909198278688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040082561983393</v>
+        <v>1.042426393957617</v>
       </c>
       <c r="J2">
-        <v>1.018370757488874</v>
+        <v>1.025513648102384</v>
       </c>
       <c r="K2">
-        <v>1.025025713144928</v>
+        <v>1.031370344183187</v>
       </c>
       <c r="L2">
-        <v>1.020134984659643</v>
+        <v>1.020727227424615</v>
       </c>
       <c r="M2">
-        <v>1.022406785195574</v>
+        <v>1.020245793660636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003375308683609</v>
+        <v>1.007561487284761</v>
       </c>
       <c r="D3">
-        <v>1.019180815076977</v>
+        <v>1.023217247484617</v>
       </c>
       <c r="E3">
-        <v>1.015225601536934</v>
+        <v>1.012667446661393</v>
       </c>
       <c r="F3">
-        <v>1.018305697144545</v>
+        <v>1.013885090834323</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041917739285658</v>
+        <v>1.043670339808284</v>
       </c>
       <c r="J3">
-        <v>1.023774380397948</v>
+        <v>1.027848119733693</v>
       </c>
       <c r="K3">
-        <v>1.029574017898054</v>
+        <v>1.033561433730163</v>
       </c>
       <c r="L3">
-        <v>1.025667305074217</v>
+        <v>1.023140770744408</v>
       </c>
       <c r="M3">
-        <v>1.028709590720577</v>
+        <v>1.024343339229061</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007961681175462</v>
+        <v>1.010179443360333</v>
       </c>
       <c r="D4">
-        <v>1.02258989587162</v>
+        <v>1.025143593651711</v>
       </c>
       <c r="E4">
-        <v>1.019269368930189</v>
+        <v>1.014748011507965</v>
       </c>
       <c r="F4">
-        <v>1.022839837808977</v>
+        <v>1.017043526242176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043057089151443</v>
+        <v>1.044451038673446</v>
       </c>
       <c r="J4">
-        <v>1.027163895938898</v>
+        <v>1.029326294229587</v>
       </c>
       <c r="K4">
-        <v>1.032423116299206</v>
+        <v>1.03494774071787</v>
       </c>
       <c r="L4">
-        <v>1.029140661934586</v>
+        <v>1.024671640858116</v>
       </c>
       <c r="M4">
-        <v>1.032670204788689</v>
+        <v>1.026940512323244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009858260330101</v>
+        <v>1.011267991308823</v>
       </c>
       <c r="D5">
-        <v>1.023999900271694</v>
+        <v>1.025945165590311</v>
       </c>
       <c r="E5">
-        <v>1.020943082947615</v>
+        <v>1.015614461355695</v>
       </c>
       <c r="F5">
-        <v>1.024716938666424</v>
+        <v>1.018357201762342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043525026305944</v>
+        <v>1.044773577758084</v>
       </c>
       <c r="J5">
-        <v>1.028564553952784</v>
+        <v>1.029940187002114</v>
       </c>
       <c r="K5">
-        <v>1.03359948440324</v>
+        <v>1.035523212918409</v>
       </c>
       <c r="L5">
-        <v>1.030576714383035</v>
+        <v>1.025308047709141</v>
       </c>
       <c r="M5">
-        <v>1.034308572481846</v>
+        <v>1.028019831688184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010174906032189</v>
+        <v>1.011450068917426</v>
       </c>
       <c r="D6">
-        <v>1.024235321407678</v>
+        <v>1.026079275521143</v>
       </c>
       <c r="E6">
-        <v>1.021222606820248</v>
+        <v>1.015759467663342</v>
       </c>
       <c r="F6">
-        <v>1.025030455435989</v>
+        <v>1.018576960363465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043602960460929</v>
+        <v>1.044827404879429</v>
       </c>
       <c r="J6">
-        <v>1.028798342331986</v>
+        <v>1.030042826869082</v>
       </c>
       <c r="K6">
-        <v>1.03379577765554</v>
+        <v>1.035619413071167</v>
       </c>
       <c r="L6">
-        <v>1.030816454636861</v>
+        <v>1.025414488791949</v>
       </c>
       <c r="M6">
-        <v>1.034582139012684</v>
+        <v>1.028200331837345</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00798714493364</v>
+        <v>1.010194035367843</v>
       </c>
       <c r="D7">
-        <v>1.022608825913657</v>
+        <v>1.0251543364425</v>
       </c>
       <c r="E7">
-        <v>1.019291834571534</v>
+        <v>1.014759621003937</v>
       </c>
       <c r="F7">
-        <v>1.022865031729786</v>
+        <v>1.017061134461137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043063384548867</v>
+        <v>1.044455370553531</v>
       </c>
       <c r="J7">
-        <v>1.027182705394737</v>
+        <v>1.029334526403784</v>
       </c>
       <c r="K7">
-        <v>1.032438917656413</v>
+        <v>1.034955458748938</v>
       </c>
       <c r="L7">
-        <v>1.029159943737301</v>
+        <v>1.024680172455863</v>
       </c>
       <c r="M7">
-        <v>1.032692199646271</v>
+        <v>1.026954982908836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985701592262397</v>
+        <v>1.004840726869914</v>
       </c>
       <c r="D8">
-        <v>1.015610390833329</v>
+        <v>1.021217438696601</v>
       </c>
       <c r="E8">
-        <v>1.010994455426532</v>
+        <v>1.010509952516876</v>
       </c>
       <c r="F8">
-        <v>1.013562836081043</v>
+        <v>1.010603853609182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0407130351267</v>
+        <v>1.042851886538654</v>
       </c>
       <c r="J8">
-        <v>1.02021991958191</v>
+        <v>1.026309435765761</v>
       </c>
       <c r="K8">
-        <v>1.026582981022079</v>
+        <v>1.032117475972379</v>
       </c>
       <c r="L8">
-        <v>1.022027531162118</v>
+        <v>1.021549417189139</v>
       </c>
       <c r="M8">
-        <v>1.024562171492266</v>
+        <v>1.021642079446933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9808167473620539</v>
+        <v>0.9949893731269245</v>
       </c>
       <c r="D9">
-        <v>1.002436061495137</v>
+        <v>1.013995851779872</v>
       </c>
       <c r="E9">
-        <v>0.9954100531110123</v>
+        <v>1.002737287423445</v>
       </c>
       <c r="F9">
-        <v>0.9961027873986745</v>
+        <v>0.9987299075785769</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036179044893043</v>
+        <v>1.03983464536915</v>
       </c>
       <c r="J9">
-        <v>1.007065589143187</v>
+        <v>1.020720318808934</v>
       </c>
       <c r="K9">
-        <v>1.015489738559596</v>
+        <v>1.026865865085638</v>
       </c>
       <c r="L9">
-        <v>1.008578040562704</v>
+        <v>1.015786109614366</v>
       </c>
       <c r="M9">
-        <v>1.009259412207731</v>
+        <v>1.011843624811468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9680569055617866</v>
+        <v>0.9881114864184359</v>
       </c>
       <c r="D10">
-        <v>0.992990638207158</v>
+        <v>1.00897276403176</v>
       </c>
       <c r="E10">
-        <v>0.984255660493514</v>
+        <v>0.9973456772715009</v>
       </c>
       <c r="F10">
-        <v>0.9836114061971218</v>
+        <v>0.9904422817688421</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032855265328754</v>
+        <v>1.037685017296019</v>
       </c>
       <c r="J10">
-        <v>0.9975978190607179</v>
+        <v>1.016804858382261</v>
       </c>
       <c r="K10">
-        <v>1.007487612713285</v>
+        <v>1.023181880512163</v>
       </c>
       <c r="L10">
-        <v>0.9989151239895735</v>
+        <v>1.011763022286432</v>
       </c>
       <c r="M10">
-        <v>0.9982830034889895</v>
+        <v>1.004986275012318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9622745141800357</v>
+        <v>0.9850526440461507</v>
       </c>
       <c r="D11">
-        <v>0.9887183476651087</v>
+        <v>1.006743988626498</v>
       </c>
       <c r="E11">
-        <v>0.9792136293311873</v>
+        <v>0.9949567778560121</v>
       </c>
       <c r="F11">
-        <v>0.9779657045993955</v>
+        <v>0.9867561369375858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03133484719414</v>
+        <v>1.036719206990102</v>
       </c>
       <c r="J11">
-        <v>0.9933055213529486</v>
+        <v>1.015060747884098</v>
       </c>
       <c r="K11">
-        <v>1.003856202318142</v>
+        <v>1.02153983409467</v>
       </c>
       <c r="L11">
-        <v>0.9945384889400355</v>
+        <v>1.009974432804853</v>
       </c>
       <c r="M11">
-        <v>0.9933154721780403</v>
+        <v>1.001932210910188</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9600842585544983</v>
+        <v>0.9839036879804899</v>
       </c>
       <c r="D12">
-        <v>0.9871015518223019</v>
+        <v>1.00590766118251</v>
       </c>
       <c r="E12">
-        <v>0.9773059040994022</v>
+        <v>0.9940608650202138</v>
       </c>
       <c r="F12">
-        <v>0.9758296133753601</v>
+        <v>0.9853714204492297</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030756934610463</v>
+        <v>1.036354997332777</v>
       </c>
       <c r="J12">
-        <v>0.9916795523791633</v>
+        <v>1.014405248043368</v>
       </c>
       <c r="K12">
-        <v>1.002480109261119</v>
+        <v>1.02092254823163</v>
       </c>
       <c r="L12">
-        <v>0.9928811965850954</v>
+        <v>1.009302740946198</v>
       </c>
       <c r="M12">
-        <v>0.9914350071990814</v>
+        <v>1.000784351794648</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9605560613001554</v>
+        <v>0.9841507314866983</v>
       </c>
       <c r="D13">
-        <v>0.9874497553800599</v>
+        <v>1.006087445618674</v>
       </c>
       <c r="E13">
-        <v>0.977716749435678</v>
+        <v>0.9942534360457171</v>
       </c>
       <c r="F13">
-        <v>0.976289638501217</v>
+        <v>0.9856691636010395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030881511244453</v>
+        <v>1.036433372279381</v>
       </c>
       <c r="J13">
-        <v>0.9920298057815182</v>
+        <v>1.014546207379203</v>
       </c>
       <c r="K13">
-        <v>1.002776556763604</v>
+        <v>1.021055296374661</v>
       </c>
       <c r="L13">
-        <v>0.9932381691741458</v>
+        <v>1.009447158439679</v>
       </c>
       <c r="M13">
-        <v>0.9918400242557992</v>
+        <v>1.001031191709292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620943558466097</v>
+        <v>0.9849579352862003</v>
       </c>
       <c r="D14">
-        <v>0.9885853277897866</v>
+        <v>1.006675032464235</v>
       </c>
       <c r="E14">
-        <v>0.9790566668316846</v>
+        <v>0.9948828987060412</v>
       </c>
       <c r="F14">
-        <v>0.9777899522920734</v>
+        <v>0.9866419976142111</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031287351265883</v>
+        <v>1.036689214020589</v>
       </c>
       <c r="J14">
-        <v>0.9931717799528181</v>
+        <v>1.015006722388024</v>
       </c>
       <c r="K14">
-        <v>1.003743023311037</v>
+        <v>1.021488961035014</v>
       </c>
       <c r="L14">
-        <v>0.9944021584026798</v>
+        <v>1.009919062087518</v>
       </c>
       <c r="M14">
-        <v>0.9931607716013138</v>
+        <v>1.001837607022458</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630364079455522</v>
+        <v>0.9854535685426692</v>
       </c>
       <c r="D15">
-        <v>0.9892809527857537</v>
+        <v>1.007035930964316</v>
       </c>
       <c r="E15">
-        <v>0.9798775136238831</v>
+        <v>0.9952695831552277</v>
       </c>
       <c r="F15">
-        <v>0.9787090630563228</v>
+        <v>0.9872393095991762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031535627738005</v>
+        <v>1.036846116060244</v>
       </c>
       <c r="J15">
-        <v>0.9938711123393369</v>
+        <v>1.015289435229691</v>
       </c>
       <c r="K15">
-        <v>1.004334816227596</v>
+        <v>1.021755171470906</v>
       </c>
       <c r="L15">
-        <v>0.9951150547566054</v>
+        <v>1.010208835827233</v>
       </c>
       <c r="M15">
-        <v>0.9939697515818904</v>
+        <v>1.002332662738505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.968434933037571</v>
+        <v>0.9883127379078857</v>
       </c>
       <c r="D16">
-        <v>0.9932701295125097</v>
+        <v>1.009119515746624</v>
       </c>
       <c r="E16">
-        <v>0.9845855654336167</v>
+        <v>0.9975030421414888</v>
       </c>
       <c r="F16">
-        <v>0.9839808189870606</v>
+        <v>0.9906847915927076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032954380352725</v>
+        <v>1.037748360175296</v>
       </c>
       <c r="J16">
-        <v>0.9978784049977593</v>
+        <v>1.016919554527791</v>
       </c>
       <c r="K16">
-        <v>1.007724927800406</v>
+        <v>1.023289843922966</v>
       </c>
       <c r="L16">
-        <v>0.9992013087830908</v>
+        <v>1.011880715968637</v>
       </c>
       <c r="M16">
-        <v>0.9986079078604716</v>
+        <v>1.005187117742042</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9717498963356244</v>
+        <v>0.9900841786674246</v>
       </c>
       <c r="D17">
-        <v>0.99572195893183</v>
+        <v>1.010411839238194</v>
       </c>
       <c r="E17">
-        <v>0.9874800006359531</v>
+        <v>0.9988892126995975</v>
       </c>
       <c r="F17">
-        <v>0.9872219479918892</v>
+        <v>0.9928193450419384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033821945531265</v>
+        <v>1.03830480101811</v>
       </c>
       <c r="J17">
-        <v>1.000338707287306</v>
+        <v>1.01792881350934</v>
       </c>
       <c r="K17">
-        <v>1.009805415807181</v>
+        <v>1.024239741223266</v>
       </c>
       <c r="L17">
-        <v>1.001711170653203</v>
+        <v>1.012916746112216</v>
       </c>
       <c r="M17">
-        <v>1.001457794646077</v>
+        <v>1.006954459558773</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9736589120843202</v>
+        <v>0.9911096922553116</v>
       </c>
       <c r="D18">
-        <v>0.9971346578909867</v>
+        <v>1.011160471409298</v>
       </c>
       <c r="E18">
-        <v>0.989148034504497</v>
+        <v>0.999692532866347</v>
       </c>
       <c r="F18">
-        <v>0.9890898459892368</v>
+        <v>0.9940550434012003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034320218237508</v>
+        <v>1.038626000441074</v>
       </c>
       <c r="J18">
-        <v>1.001755365792408</v>
+        <v>1.018512823732082</v>
       </c>
       <c r="K18">
-        <v>1.011003034850111</v>
+        <v>1.02478930174052</v>
       </c>
       <c r="L18">
-        <v>1.003156753623425</v>
+        <v>1.013516575704847</v>
       </c>
       <c r="M18">
-        <v>1.003099598397187</v>
+        <v>1.007977189695666</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9743057799280936</v>
+        <v>0.9914580723213914</v>
       </c>
       <c r="D19">
-        <v>0.9976134686025221</v>
+        <v>1.01141487203177</v>
       </c>
       <c r="E19">
-        <v>0.9897134432348903</v>
+        <v>0.9999655727079056</v>
       </c>
       <c r="F19">
-        <v>0.9897230153084735</v>
+        <v>0.994474823791184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034488826787974</v>
+        <v>1.03873495671175</v>
       </c>
       <c r="J19">
-        <v>1.002235365243055</v>
+        <v>1.01871117350991</v>
       </c>
       <c r="K19">
-        <v>1.011408758852613</v>
+        <v>1.024975933935377</v>
       </c>
       <c r="L19">
-        <v>1.003646619094622</v>
+        <v>1.013720353817799</v>
       </c>
       <c r="M19">
-        <v>1.003656022371982</v>
+        <v>1.008324555795886</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9713967966821283</v>
+        <v>0.9898949247285148</v>
       </c>
       <c r="D20">
-        <v>0.9954607187118382</v>
+        <v>1.010273721414265</v>
       </c>
       <c r="E20">
-        <v>0.9871715693781017</v>
+        <v>0.998741031469732</v>
       </c>
       <c r="F20">
-        <v>0.9868765663547465</v>
+        <v>0.9925913008683159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033729673561149</v>
+        <v>1.038245449483498</v>
       </c>
       <c r="J20">
-        <v>1.000076660913739</v>
+        <v>1.017821015386727</v>
       </c>
       <c r="K20">
-        <v>1.00958385829758</v>
+        <v>1.024138293758847</v>
       </c>
       <c r="L20">
-        <v>1.001443805372555</v>
+        <v>1.012806054504006</v>
       </c>
       <c r="M20">
-        <v>1.001154168609396</v>
+        <v>1.006765686418275</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9616425701520597</v>
+        <v>0.9847205916909788</v>
       </c>
       <c r="D21">
-        <v>0.9882517763086693</v>
+        <v>1.006502239578649</v>
       </c>
       <c r="E21">
-        <v>0.9786630839917982</v>
+        <v>0.9946977776350651</v>
       </c>
       <c r="F21">
-        <v>0.9773492545327025</v>
+        <v>0.986355957862176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03116821318035</v>
+        <v>1.036614027575658</v>
       </c>
       <c r="J21">
-        <v>0.9928363930589</v>
+        <v>1.014871326518867</v>
       </c>
       <c r="K21">
-        <v>1.003459193859512</v>
+        <v>1.021361463334912</v>
       </c>
       <c r="L21">
-        <v>0.9940602887134936</v>
+        <v>1.00978030336555</v>
       </c>
       <c r="M21">
-        <v>0.9927728454827118</v>
+        <v>1.001600514843207</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9552620297205053</v>
+        <v>0.9813930717907245</v>
       </c>
       <c r="D22">
-        <v>0.9835448924843038</v>
+        <v>1.004081796377908</v>
       </c>
       <c r="E22">
-        <v>0.9731097920587101</v>
+        <v>0.9921058208623947</v>
       </c>
       <c r="F22">
-        <v>0.971131205117184</v>
+        <v>0.9823452933831173</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029480999110478</v>
+        <v>1.035556558772904</v>
       </c>
       <c r="J22">
-        <v>0.9880996207321243</v>
+        <v>1.012972236561226</v>
       </c>
       <c r="K22">
-        <v>0.9994495313912718</v>
+        <v>1.019572823458688</v>
       </c>
       <c r="L22">
-        <v>0.989233456965621</v>
+        <v>1.007835302024673</v>
       </c>
       <c r="M22">
-        <v>0.9872971030379607</v>
+        <v>0.9982747984169068</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9586693457400776</v>
+        <v>0.9831643146643134</v>
       </c>
       <c r="D23">
-        <v>0.986057541789144</v>
+        <v>1.00536971488234</v>
       </c>
       <c r="E23">
-        <v>0.976074121144036</v>
+        <v>0.9934847314684256</v>
       </c>
       <c r="F23">
-        <v>0.9744503822218717</v>
+        <v>0.9844802823946982</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030383051194</v>
+        <v>1.036120222781847</v>
       </c>
       <c r="J23">
-        <v>0.9906291520274487</v>
+        <v>1.013983319629687</v>
       </c>
       <c r="K23">
-        <v>1.001591006733278</v>
+        <v>1.020525177686332</v>
       </c>
       <c r="L23">
-        <v>0.9918107374537883</v>
+        <v>1.008870538641931</v>
       </c>
       <c r="M23">
-        <v>0.9902205595992353</v>
+        <v>1.000045481991715</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9715564227932416</v>
+        <v>0.9899804643024828</v>
       </c>
       <c r="D24">
-        <v>0.9955788155460934</v>
+        <v>1.010336146826484</v>
       </c>
       <c r="E24">
-        <v>0.9873109985149021</v>
+        <v>0.9988080042589883</v>
       </c>
       <c r="F24">
-        <v>0.9870326990287777</v>
+        <v>0.9926943730474057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033771391212487</v>
+        <v>1.038272278265294</v>
       </c>
       <c r="J24">
-        <v>1.000195125036254</v>
+        <v>1.017869739135687</v>
       </c>
       <c r="K24">
-        <v>1.009684019553426</v>
+        <v>1.024184147380061</v>
       </c>
       <c r="L24">
-        <v>1.001564672825544</v>
+        <v>1.012856085064336</v>
       </c>
       <c r="M24">
-        <v>1.001291427231096</v>
+        <v>1.006851009948867</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9855577113879647</v>
+        <v>0.9975886293300738</v>
       </c>
       <c r="D25">
-        <v>1.005951002609145</v>
+        <v>1.015898236840211</v>
       </c>
       <c r="E25">
-        <v>0.9995644059260189</v>
+        <v>1.00478224953063</v>
       </c>
       <c r="F25">
-        <v>1.000756012828753</v>
+        <v>1.001862131359765</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037401273378723</v>
+        <v>1.04063830792189</v>
       </c>
       <c r="J25">
-        <v>1.01058108688109</v>
+        <v>1.022197419125545</v>
       </c>
       <c r="K25">
-        <v>1.018457634041789</v>
+        <v>1.028254666240605</v>
       </c>
       <c r="L25">
-        <v>1.012169487696931</v>
+        <v>1.017306778088144</v>
       </c>
       <c r="M25">
-        <v>1.013342603997395</v>
+        <v>1.014431608751188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003435200052894</v>
+        <v>1.029816075909231</v>
       </c>
       <c r="D2">
-        <v>1.020185237743593</v>
+        <v>1.034624077967305</v>
       </c>
       <c r="E2">
-        <v>1.009397277373848</v>
+        <v>1.029600393852309</v>
       </c>
       <c r="F2">
-        <v>1.008909198278688</v>
+        <v>1.040027720571122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042426393957617</v>
+        <v>1.035887974341571</v>
       </c>
       <c r="J2">
-        <v>1.025513648102384</v>
+        <v>1.034960759601254</v>
       </c>
       <c r="K2">
-        <v>1.031370344183187</v>
+        <v>1.037423018030271</v>
       </c>
       <c r="L2">
-        <v>1.020727227424615</v>
+        <v>1.032413834043669</v>
       </c>
       <c r="M2">
-        <v>1.020245793660636</v>
+        <v>1.042811233608109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007561487284761</v>
+        <v>1.030684986950767</v>
       </c>
       <c r="D3">
-        <v>1.023217247484617</v>
+        <v>1.035282926524373</v>
       </c>
       <c r="E3">
-        <v>1.012667446661393</v>
+        <v>1.030336523255732</v>
       </c>
       <c r="F3">
-        <v>1.013885090834323</v>
+        <v>1.041150918177463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043670339808284</v>
+        <v>1.03610282454456</v>
       </c>
       <c r="J3">
-        <v>1.027848119733693</v>
+        <v>1.035471274015288</v>
       </c>
       <c r="K3">
-        <v>1.033561433730163</v>
+        <v>1.037891493489876</v>
       </c>
       <c r="L3">
-        <v>1.023140770744408</v>
+        <v>1.032958336787458</v>
       </c>
       <c r="M3">
-        <v>1.024343339229061</v>
+        <v>1.043743946924692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010179443360333</v>
+        <v>1.031247696985664</v>
       </c>
       <c r="D4">
-        <v>1.025143593651711</v>
+        <v>1.035709605057179</v>
       </c>
       <c r="E4">
-        <v>1.014748011507965</v>
+        <v>1.030813627786324</v>
       </c>
       <c r="F4">
-        <v>1.017043526242176</v>
+        <v>1.041878544495064</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044451038673446</v>
+        <v>1.036240899560263</v>
       </c>
       <c r="J4">
-        <v>1.029326294229587</v>
+        <v>1.035801437902029</v>
       </c>
       <c r="K4">
-        <v>1.03494774071787</v>
+        <v>1.038194304356032</v>
       </c>
       <c r="L4">
-        <v>1.024671640858116</v>
+        <v>1.033310779432933</v>
       </c>
       <c r="M4">
-        <v>1.026940512323244</v>
+        <v>1.044347733295685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011267991308823</v>
+        <v>1.031484370762737</v>
       </c>
       <c r="D5">
-        <v>1.025945165590311</v>
+        <v>1.035889065324612</v>
       </c>
       <c r="E5">
-        <v>1.015614461355695</v>
+        <v>1.031014387682581</v>
       </c>
       <c r="F5">
-        <v>1.018357201762342</v>
+        <v>1.042184639704969</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044773577758084</v>
+        <v>1.036298718935356</v>
       </c>
       <c r="J5">
-        <v>1.029940187002114</v>
+        <v>1.03594019639548</v>
       </c>
       <c r="K5">
-        <v>1.035523212918409</v>
+        <v>1.03832152745851</v>
       </c>
       <c r="L5">
-        <v>1.025308047709141</v>
+        <v>1.033458972274852</v>
       </c>
       <c r="M5">
-        <v>1.028019831688184</v>
+        <v>1.044601626359127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011450068917426</v>
+        <v>1.031524115775026</v>
       </c>
       <c r="D6">
-        <v>1.026079275521143</v>
+        <v>1.035919202412895</v>
       </c>
       <c r="E6">
-        <v>1.015759467663342</v>
+        <v>1.03104810696682</v>
       </c>
       <c r="F6">
-        <v>1.018576960363465</v>
+        <v>1.042236046214531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827404879429</v>
+        <v>1.036308413714482</v>
       </c>
       <c r="J6">
-        <v>1.030042826869082</v>
+        <v>1.035963492042305</v>
       </c>
       <c r="K6">
-        <v>1.035619413071167</v>
+        <v>1.038342884139875</v>
       </c>
       <c r="L6">
-        <v>1.025414488791949</v>
+        <v>1.033483855995369</v>
       </c>
       <c r="M6">
-        <v>1.028200331837345</v>
+        <v>1.044644259697178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010194035367843</v>
+        <v>1.031250858999645</v>
       </c>
       <c r="D7">
-        <v>1.0251543364425</v>
+        <v>1.035712002683401</v>
       </c>
       <c r="E7">
-        <v>1.014759621003937</v>
+        <v>1.030816309624225</v>
       </c>
       <c r="F7">
-        <v>1.017061134461137</v>
+        <v>1.041882633764712</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044455370553531</v>
+        <v>1.036241673039634</v>
       </c>
       <c r="J7">
-        <v>1.029334526403784</v>
+        <v>1.035803292167643</v>
       </c>
       <c r="K7">
-        <v>1.034955458748938</v>
+        <v>1.038196004627393</v>
       </c>
       <c r="L7">
-        <v>1.024680172455863</v>
+        <v>1.033312759492325</v>
       </c>
       <c r="M7">
-        <v>1.026954982908836</v>
+        <v>1.044351125587214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004840726869914</v>
+        <v>1.030109631151911</v>
       </c>
       <c r="D8">
-        <v>1.021217438696601</v>
+        <v>1.034846663625759</v>
       </c>
       <c r="E8">
-        <v>1.010509952516876</v>
+        <v>1.029849009922039</v>
       </c>
       <c r="F8">
-        <v>1.010603853609182</v>
+        <v>1.0404071357078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042851886538654</v>
+        <v>1.035960779817802</v>
       </c>
       <c r="J8">
-        <v>1.026309435765761</v>
+        <v>1.035133325590935</v>
       </c>
       <c r="K8">
-        <v>1.032117475972379</v>
+        <v>1.037581408007334</v>
       </c>
       <c r="L8">
-        <v>1.021549417189139</v>
+        <v>1.032597827251174</v>
       </c>
       <c r="M8">
-        <v>1.021642079446933</v>
+        <v>1.04312639455098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9949893731269245</v>
+        <v>1.02810226765581</v>
       </c>
       <c r="D9">
-        <v>1.013995851779872</v>
+        <v>1.033324642390416</v>
       </c>
       <c r="E9">
-        <v>1.002737287423445</v>
+        <v>1.028150540373798</v>
       </c>
       <c r="F9">
-        <v>0.9987299075785769</v>
+        <v>1.037813595627136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983464536915</v>
+        <v>1.035458577953235</v>
       </c>
       <c r="J9">
-        <v>1.020720318808934</v>
+        <v>1.03395147614575</v>
       </c>
       <c r="K9">
-        <v>1.026865865085638</v>
+        <v>1.036495972299002</v>
       </c>
       <c r="L9">
-        <v>1.015786109614366</v>
+        <v>1.031338938527373</v>
       </c>
       <c r="M9">
-        <v>1.011843624811468</v>
+        <v>1.040970268550675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9881114864184359</v>
+        <v>1.026766533743689</v>
       </c>
       <c r="D10">
-        <v>1.00897276403176</v>
+        <v>1.032311940949756</v>
       </c>
       <c r="E10">
-        <v>0.9973456772715009</v>
+        <v>1.027022373581495</v>
       </c>
       <c r="F10">
-        <v>0.9904422817688421</v>
+        <v>1.036088954114567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037685017296019</v>
+        <v>1.035118946433982</v>
       </c>
       <c r="J10">
-        <v>1.016804858382261</v>
+        <v>1.033162771333962</v>
       </c>
       <c r="K10">
-        <v>1.023181880512163</v>
+        <v>1.03577076848386</v>
       </c>
       <c r="L10">
-        <v>1.011763022286432</v>
+        <v>1.030500357829066</v>
       </c>
       <c r="M10">
-        <v>1.004986275012318</v>
+        <v>1.039534234896497</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9850526440461507</v>
+        <v>1.026188755791212</v>
       </c>
       <c r="D11">
-        <v>1.006743988626498</v>
+        <v>1.031873917470973</v>
       </c>
       <c r="E11">
-        <v>0.9949567778560121</v>
+        <v>1.026534866776013</v>
       </c>
       <c r="F11">
-        <v>0.9867561369375858</v>
+        <v>1.035343211312661</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036719206990102</v>
+        <v>1.034970743242353</v>
       </c>
       <c r="J11">
-        <v>1.015060747884098</v>
+        <v>1.032821074380962</v>
       </c>
       <c r="K11">
-        <v>1.02153983409467</v>
+        <v>1.035456384802273</v>
       </c>
       <c r="L11">
-        <v>1.009974432804853</v>
+        <v>1.030137417513461</v>
       </c>
       <c r="M11">
-        <v>1.001932210910188</v>
+        <v>1.038912751401931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9839036879804899</v>
+        <v>1.02597423516669</v>
       </c>
       <c r="D12">
-        <v>1.00590766118251</v>
+        <v>1.031711290038052</v>
       </c>
       <c r="E12">
-        <v>0.9940608650202138</v>
+        <v>1.026353936289237</v>
       </c>
       <c r="F12">
-        <v>0.9853714204492297</v>
+        <v>1.035066365628131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036354997332777</v>
+        <v>1.034915523142878</v>
       </c>
       <c r="J12">
-        <v>1.014405248043368</v>
+        <v>1.032694126426367</v>
       </c>
       <c r="K12">
-        <v>1.02092254823163</v>
+        <v>1.035339554742589</v>
       </c>
       <c r="L12">
-        <v>1.009302740946198</v>
+        <v>1.030002632028814</v>
       </c>
       <c r="M12">
-        <v>1.000784351794648</v>
+        <v>1.038681954593115</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9841507314866983</v>
+        <v>1.026020246394874</v>
       </c>
       <c r="D13">
-        <v>1.006087445618674</v>
+        <v>1.031746170803227</v>
       </c>
       <c r="E13">
-        <v>0.9942534360457171</v>
+        <v>1.026392739624841</v>
       </c>
       <c r="F13">
-        <v>0.9856691636010395</v>
+        <v>1.035125742883551</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433372279381</v>
+        <v>1.034927375764079</v>
       </c>
       <c r="J13">
-        <v>1.014546207379203</v>
+        <v>1.032721358377353</v>
       </c>
       <c r="K13">
-        <v>1.021055296374661</v>
+        <v>1.035364617613292</v>
       </c>
       <c r="L13">
-        <v>1.009447158439679</v>
+        <v>1.030031542747041</v>
       </c>
       <c r="M13">
-        <v>1.001031191709292</v>
+        <v>1.038731459029403</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9849579352862003</v>
+        <v>1.026171021569496</v>
       </c>
       <c r="D14">
-        <v>1.006675032464235</v>
+        <v>1.031860473118963</v>
       </c>
       <c r="E14">
-        <v>0.9948828987060412</v>
+        <v>1.026519907911588</v>
       </c>
       <c r="F14">
-        <v>0.9866419976142111</v>
+        <v>1.035320323969264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036689214020589</v>
+        <v>1.034966182213724</v>
       </c>
       <c r="J14">
-        <v>1.015006722388024</v>
+        <v>1.032810581358449</v>
       </c>
       <c r="K14">
-        <v>1.021488961035014</v>
+        <v>1.03544672868829</v>
       </c>
       <c r="L14">
-        <v>1.009919062087518</v>
+        <v>1.030126275552229</v>
       </c>
       <c r="M14">
-        <v>1.001837607022458</v>
+        <v>1.038893672646398</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9854535685426692</v>
+        <v>1.026263931333715</v>
       </c>
       <c r="D15">
-        <v>1.007035930964316</v>
+        <v>1.03193090839546</v>
       </c>
       <c r="E15">
-        <v>0.9952695831552277</v>
+        <v>1.026598280576078</v>
       </c>
       <c r="F15">
-        <v>0.9872393095991762</v>
+        <v>1.035440232534148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036846116060244</v>
+        <v>1.034990069526143</v>
       </c>
       <c r="J15">
-        <v>1.015289435229691</v>
+        <v>1.032865551099377</v>
       </c>
       <c r="K15">
-        <v>1.021755171470906</v>
+        <v>1.035497312910129</v>
       </c>
       <c r="L15">
-        <v>1.010208835827233</v>
+        <v>1.03018464713118</v>
       </c>
       <c r="M15">
-        <v>1.002332662738505</v>
+        <v>1.038993624427068</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9883127379078857</v>
+        <v>1.026804891779017</v>
       </c>
       <c r="D16">
-        <v>1.009119515746624</v>
+        <v>1.032341021422767</v>
       </c>
       <c r="E16">
-        <v>0.9975030421414888</v>
+        <v>1.02705474893168</v>
       </c>
       <c r="F16">
-        <v>0.9906847915927076</v>
+        <v>1.036138468518781</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037748360175296</v>
+        <v>1.035128758206313</v>
       </c>
       <c r="J16">
-        <v>1.016919554527791</v>
+        <v>1.033185444868836</v>
       </c>
       <c r="K16">
-        <v>1.023289843922966</v>
+        <v>1.035791625472624</v>
       </c>
       <c r="L16">
-        <v>1.011880715968637</v>
+        <v>1.030524448669343</v>
       </c>
       <c r="M16">
-        <v>1.005187117742042</v>
+        <v>1.03957548767154</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9900841786674246</v>
+        <v>1.027144384392313</v>
       </c>
       <c r="D17">
-        <v>1.010411839238194</v>
+        <v>1.032598404797286</v>
       </c>
       <c r="E17">
-        <v>0.9988892126995975</v>
+        <v>1.027341347404526</v>
       </c>
       <c r="F17">
-        <v>0.9928193450419384</v>
+        <v>1.036576731778477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03830480101811</v>
+        <v>1.035215448967314</v>
       </c>
       <c r="J17">
-        <v>1.01792881350934</v>
+        <v>1.033386057561738</v>
       </c>
       <c r="K17">
-        <v>1.024239741223266</v>
+        <v>1.035976142759833</v>
       </c>
       <c r="L17">
-        <v>1.012916746112216</v>
+        <v>1.030737643641957</v>
       </c>
       <c r="M17">
-        <v>1.006954459558773</v>
+        <v>1.039940563406036</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9911096922553116</v>
+        <v>1.027342462856222</v>
       </c>
       <c r="D18">
-        <v>1.011160471409298</v>
+        <v>1.032748578664415</v>
       </c>
       <c r="E18">
-        <v>0.999692532866347</v>
+        <v>1.027508611528277</v>
       </c>
       <c r="F18">
-        <v>0.9940550434012003</v>
+        <v>1.036832463482204</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038626000441074</v>
+        <v>1.035265904145086</v>
       </c>
       <c r="J18">
-        <v>1.018512823732082</v>
+        <v>1.03350305387373</v>
       </c>
       <c r="K18">
-        <v>1.02478930174052</v>
+        <v>1.036083733227159</v>
       </c>
       <c r="L18">
-        <v>1.013516575704847</v>
+        <v>1.030862013057122</v>
       </c>
       <c r="M18">
-        <v>1.007977189695666</v>
+        <v>1.040153537574125</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9914580723213914</v>
+        <v>1.027410012324949</v>
       </c>
       <c r="D19">
-        <v>1.01141487203177</v>
+        <v>1.032799791915659</v>
       </c>
       <c r="E19">
-        <v>0.9999655727079056</v>
+        <v>1.027565660524345</v>
       </c>
       <c r="F19">
-        <v>0.994474823791184</v>
+        <v>1.036919678361293</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03873495671175</v>
+        <v>1.035283089370402</v>
       </c>
       <c r="J19">
-        <v>1.01871117350991</v>
+        <v>1.033542943565755</v>
       </c>
       <c r="K19">
-        <v>1.024975933935377</v>
+        <v>1.036120412771539</v>
       </c>
       <c r="L19">
-        <v>1.013720353817799</v>
+        <v>1.030904422561995</v>
       </c>
       <c r="M19">
-        <v>1.008324555795886</v>
+        <v>1.040226161619033</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9898949247285148</v>
+        <v>1.02710795402315</v>
       </c>
       <c r="D20">
-        <v>1.010273721414265</v>
+        <v>1.032570785177029</v>
       </c>
       <c r="E20">
-        <v>0.998741031469732</v>
+        <v>1.027310588151677</v>
       </c>
       <c r="F20">
-        <v>0.9925913008683159</v>
+        <v>1.036529699915532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038245449483498</v>
+        <v>1.035206159251109</v>
       </c>
       <c r="J20">
-        <v>1.017821015386727</v>
+        <v>1.03336453554008</v>
       </c>
       <c r="K20">
-        <v>1.024138293758847</v>
+        <v>1.035956349449992</v>
       </c>
       <c r="L20">
-        <v>1.012806054504006</v>
+        <v>1.030714768135552</v>
       </c>
       <c r="M20">
-        <v>1.006765686418275</v>
+        <v>1.039901390955656</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9847205916909788</v>
+        <v>1.026126619494327</v>
       </c>
       <c r="D21">
-        <v>1.006502239578649</v>
+        <v>1.03182681188188</v>
       </c>
       <c r="E21">
-        <v>0.9946977776350651</v>
+        <v>1.026482455833691</v>
       </c>
       <c r="F21">
-        <v>0.986355957862176</v>
+        <v>1.035263020368811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036614027575658</v>
+        <v>1.034954759393296</v>
       </c>
       <c r="J21">
-        <v>1.014871326518867</v>
+        <v>1.032784308138133</v>
       </c>
       <c r="K21">
-        <v>1.021361463334912</v>
+        <v>1.035422550505091</v>
       </c>
       <c r="L21">
-        <v>1.00978030336555</v>
+        <v>1.030098378356388</v>
       </c>
       <c r="M21">
-        <v>1.001600514843207</v>
+        <v>1.03884590339982</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9813930717907245</v>
+        <v>1.025510147409958</v>
       </c>
       <c r="D22">
-        <v>1.004081796377908</v>
+        <v>1.031359475136302</v>
       </c>
       <c r="E22">
-        <v>0.9921058208623947</v>
+        <v>1.025962651977069</v>
       </c>
       <c r="F22">
-        <v>0.9823452933831173</v>
+        <v>1.034467513725503</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035556558772904</v>
+        <v>1.034795706179134</v>
       </c>
       <c r="J22">
-        <v>1.012972236561226</v>
+        <v>1.03241934332975</v>
       </c>
       <c r="K22">
-        <v>1.019572823458688</v>
+        <v>1.035086618193413</v>
       </c>
       <c r="L22">
-        <v>1.007835302024673</v>
+        <v>1.029710984693766</v>
       </c>
       <c r="M22">
-        <v>0.9982747984169068</v>
+        <v>1.038182565035536</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9831643146643134</v>
+        <v>1.025836900127369</v>
       </c>
       <c r="D23">
-        <v>1.00536971488234</v>
+        <v>1.031607178063857</v>
       </c>
       <c r="E23">
-        <v>0.9934847314684256</v>
+        <v>1.026238126326933</v>
       </c>
       <c r="F23">
-        <v>0.9844802823946982</v>
+        <v>1.034889140925182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036120222781847</v>
+        <v>1.034880116790506</v>
       </c>
       <c r="J23">
-        <v>1.013983319629687</v>
+        <v>1.032612832252006</v>
       </c>
       <c r="K23">
-        <v>1.020525177686332</v>
+        <v>1.035264731491643</v>
       </c>
       <c r="L23">
-        <v>1.008870538641931</v>
+        <v>1.029916334349735</v>
       </c>
       <c r="M23">
-        <v>1.000045481991715</v>
+        <v>1.038534185742593</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9899804643024828</v>
+        <v>1.027124415159226</v>
       </c>
       <c r="D24">
-        <v>1.010336146826484</v>
+        <v>1.032583265151041</v>
       </c>
       <c r="E24">
-        <v>0.9988080042589883</v>
+        <v>1.027324486637313</v>
       </c>
       <c r="F24">
-        <v>0.9926943730474057</v>
+        <v>1.0365509512804</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038272278265294</v>
+        <v>1.035210357214156</v>
       </c>
       <c r="J24">
-        <v>1.017869739135687</v>
+        <v>1.033374260469977</v>
       </c>
       <c r="K24">
-        <v>1.024184147380061</v>
+        <v>1.035965293304025</v>
       </c>
       <c r="L24">
-        <v>1.012856085064336</v>
+        <v>1.03072510454169</v>
       </c>
       <c r="M24">
-        <v>1.006851009948867</v>
+        <v>1.039919091201939</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9975886293300738</v>
+        <v>1.028620782295031</v>
       </c>
       <c r="D25">
-        <v>1.015898236840211</v>
+        <v>1.033717778741112</v>
       </c>
       <c r="E25">
-        <v>1.00478224953063</v>
+        <v>1.028588911091332</v>
       </c>
       <c r="F25">
-        <v>1.001862131359765</v>
+        <v>1.038483317284896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04063830792189</v>
+        <v>1.035589262906715</v>
       </c>
       <c r="J25">
-        <v>1.022197419125545</v>
+        <v>1.03425715866987</v>
       </c>
       <c r="K25">
-        <v>1.028254666240605</v>
+        <v>1.036776866265035</v>
       </c>
       <c r="L25">
-        <v>1.017306778088144</v>
+        <v>1.03166427657412</v>
       </c>
       <c r="M25">
-        <v>1.014431608751188</v>
+        <v>1.041527437474784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029816075909231</v>
+        <v>1.003435200052893</v>
       </c>
       <c r="D2">
-        <v>1.034624077967305</v>
+        <v>1.020185237743593</v>
       </c>
       <c r="E2">
-        <v>1.029600393852309</v>
+        <v>1.009397277373847</v>
       </c>
       <c r="F2">
-        <v>1.040027720571122</v>
+        <v>1.008909198278688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035887974341571</v>
+        <v>1.042426393957616</v>
       </c>
       <c r="J2">
-        <v>1.034960759601254</v>
+        <v>1.025513648102383</v>
       </c>
       <c r="K2">
-        <v>1.037423018030271</v>
+        <v>1.031370344183187</v>
       </c>
       <c r="L2">
-        <v>1.032413834043669</v>
+        <v>1.020727227424614</v>
       </c>
       <c r="M2">
-        <v>1.042811233608109</v>
+        <v>1.020245793660636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030684986950767</v>
+        <v>1.007561487284761</v>
       </c>
       <c r="D3">
-        <v>1.035282926524373</v>
+        <v>1.023217247484617</v>
       </c>
       <c r="E3">
-        <v>1.030336523255732</v>
+        <v>1.012667446661393</v>
       </c>
       <c r="F3">
-        <v>1.041150918177463</v>
+        <v>1.013885090834324</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03610282454456</v>
+        <v>1.043670339808285</v>
       </c>
       <c r="J3">
-        <v>1.035471274015288</v>
+        <v>1.027848119733693</v>
       </c>
       <c r="K3">
-        <v>1.037891493489876</v>
+        <v>1.033561433730164</v>
       </c>
       <c r="L3">
-        <v>1.032958336787458</v>
+        <v>1.023140770744409</v>
       </c>
       <c r="M3">
-        <v>1.043743946924692</v>
+        <v>1.024343339229062</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031247696985664</v>
+        <v>1.010179443360333</v>
       </c>
       <c r="D4">
-        <v>1.035709605057179</v>
+        <v>1.025143593651711</v>
       </c>
       <c r="E4">
-        <v>1.030813627786324</v>
+        <v>1.014748011507965</v>
       </c>
       <c r="F4">
-        <v>1.041878544495064</v>
+        <v>1.017043526242176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036240899560263</v>
+        <v>1.044451038673446</v>
       </c>
       <c r="J4">
-        <v>1.035801437902029</v>
+        <v>1.029326294229587</v>
       </c>
       <c r="K4">
-        <v>1.038194304356032</v>
+        <v>1.03494774071787</v>
       </c>
       <c r="L4">
-        <v>1.033310779432933</v>
+        <v>1.024671640858116</v>
       </c>
       <c r="M4">
-        <v>1.044347733295685</v>
+        <v>1.026940512323244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031484370762737</v>
+        <v>1.011267991308822</v>
       </c>
       <c r="D5">
-        <v>1.035889065324612</v>
+        <v>1.025945165590309</v>
       </c>
       <c r="E5">
-        <v>1.031014387682581</v>
+        <v>1.015614461355694</v>
       </c>
       <c r="F5">
-        <v>1.042184639704969</v>
+        <v>1.01835720176234</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036298718935356</v>
+        <v>1.044773577758083</v>
       </c>
       <c r="J5">
-        <v>1.03594019639548</v>
+        <v>1.029940187002113</v>
       </c>
       <c r="K5">
-        <v>1.03832152745851</v>
+        <v>1.035523212918408</v>
       </c>
       <c r="L5">
-        <v>1.033458972274852</v>
+        <v>1.02530804770914</v>
       </c>
       <c r="M5">
-        <v>1.044601626359127</v>
+        <v>1.028019831688182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031524115775026</v>
+        <v>1.011450068917425</v>
       </c>
       <c r="D6">
-        <v>1.035919202412895</v>
+        <v>1.026079275521142</v>
       </c>
       <c r="E6">
-        <v>1.03104810696682</v>
+        <v>1.015759467663341</v>
       </c>
       <c r="F6">
-        <v>1.042236046214531</v>
+        <v>1.018576960363465</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036308413714482</v>
+        <v>1.044827404879428</v>
       </c>
       <c r="J6">
-        <v>1.035963492042305</v>
+        <v>1.030042826869081</v>
       </c>
       <c r="K6">
-        <v>1.038342884139875</v>
+        <v>1.035619413071167</v>
       </c>
       <c r="L6">
-        <v>1.033483855995369</v>
+        <v>1.025414488791949</v>
       </c>
       <c r="M6">
-        <v>1.044644259697178</v>
+        <v>1.028200331837344</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031250858999645</v>
+        <v>1.010194035367843</v>
       </c>
       <c r="D7">
-        <v>1.035712002683401</v>
+        <v>1.0251543364425</v>
       </c>
       <c r="E7">
-        <v>1.030816309624225</v>
+        <v>1.014759621003937</v>
       </c>
       <c r="F7">
-        <v>1.041882633764712</v>
+        <v>1.017061134461137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036241673039634</v>
+        <v>1.044455370553532</v>
       </c>
       <c r="J7">
-        <v>1.035803292167643</v>
+        <v>1.029334526403784</v>
       </c>
       <c r="K7">
-        <v>1.038196004627393</v>
+        <v>1.034955458748938</v>
       </c>
       <c r="L7">
-        <v>1.033312759492325</v>
+        <v>1.024680172455863</v>
       </c>
       <c r="M7">
-        <v>1.044351125587214</v>
+        <v>1.026954982908836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030109631151911</v>
+        <v>1.004840726869913</v>
       </c>
       <c r="D8">
-        <v>1.034846663625759</v>
+        <v>1.021217438696601</v>
       </c>
       <c r="E8">
-        <v>1.029849009922039</v>
+        <v>1.010509952516875</v>
       </c>
       <c r="F8">
-        <v>1.0404071357078</v>
+        <v>1.010603853609182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035960779817802</v>
+        <v>1.042851886538654</v>
       </c>
       <c r="J8">
-        <v>1.035133325590935</v>
+        <v>1.02630943576576</v>
       </c>
       <c r="K8">
-        <v>1.037581408007334</v>
+        <v>1.032117475972378</v>
       </c>
       <c r="L8">
-        <v>1.032597827251174</v>
+        <v>1.021549417189138</v>
       </c>
       <c r="M8">
-        <v>1.04312639455098</v>
+        <v>1.021642079446933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02810226765581</v>
+        <v>0.9949893731269247</v>
       </c>
       <c r="D9">
-        <v>1.033324642390416</v>
+        <v>1.013995851779872</v>
       </c>
       <c r="E9">
-        <v>1.028150540373798</v>
+        <v>1.002737287423445</v>
       </c>
       <c r="F9">
-        <v>1.037813595627136</v>
+        <v>0.9987299075785774</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035458577953235</v>
+        <v>1.03983464536915</v>
       </c>
       <c r="J9">
-        <v>1.03395147614575</v>
+        <v>1.020720318808934</v>
       </c>
       <c r="K9">
-        <v>1.036495972299002</v>
+        <v>1.026865865085638</v>
       </c>
       <c r="L9">
-        <v>1.031338938527373</v>
+        <v>1.015786109614366</v>
       </c>
       <c r="M9">
-        <v>1.040970268550675</v>
+        <v>1.011843624811468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026766533743689</v>
+        <v>0.9881114864184348</v>
       </c>
       <c r="D10">
-        <v>1.032311940949756</v>
+        <v>1.008972764031759</v>
       </c>
       <c r="E10">
-        <v>1.027022373581495</v>
+        <v>0.9973456772714995</v>
       </c>
       <c r="F10">
-        <v>1.036088954114567</v>
+        <v>0.9904422817688415</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035118946433982</v>
+        <v>1.037685017296018</v>
       </c>
       <c r="J10">
-        <v>1.033162771333962</v>
+        <v>1.01680485838226</v>
       </c>
       <c r="K10">
-        <v>1.03577076848386</v>
+        <v>1.023181880512162</v>
       </c>
       <c r="L10">
-        <v>1.030500357829066</v>
+        <v>1.01176302228643</v>
       </c>
       <c r="M10">
-        <v>1.039534234896497</v>
+        <v>1.004986275012317</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026188755791212</v>
+        <v>0.98505264404615</v>
       </c>
       <c r="D11">
-        <v>1.031873917470973</v>
+        <v>1.006743988626497</v>
       </c>
       <c r="E11">
-        <v>1.026534866776013</v>
+        <v>0.9949567778560113</v>
       </c>
       <c r="F11">
-        <v>1.035343211312661</v>
+        <v>0.9867561369375849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034970743242353</v>
+        <v>1.036719206990101</v>
       </c>
       <c r="J11">
-        <v>1.032821074380962</v>
+        <v>1.015060747884097</v>
       </c>
       <c r="K11">
-        <v>1.035456384802273</v>
+        <v>1.021539834094669</v>
       </c>
       <c r="L11">
-        <v>1.030137417513461</v>
+        <v>1.009974432804852</v>
       </c>
       <c r="M11">
-        <v>1.038912751401931</v>
+        <v>1.001932210910188</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02597423516669</v>
+        <v>0.9839036879804903</v>
       </c>
       <c r="D12">
-        <v>1.031711290038052</v>
+        <v>1.005907661182511</v>
       </c>
       <c r="E12">
-        <v>1.026353936289237</v>
+        <v>0.9940608650202143</v>
       </c>
       <c r="F12">
-        <v>1.035066365628131</v>
+        <v>0.9853714204492303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034915523142878</v>
+        <v>1.036354997332777</v>
       </c>
       <c r="J12">
-        <v>1.032694126426367</v>
+        <v>1.014405248043369</v>
       </c>
       <c r="K12">
-        <v>1.035339554742589</v>
+        <v>1.020922548231631</v>
       </c>
       <c r="L12">
-        <v>1.030002632028814</v>
+        <v>1.009302740946199</v>
       </c>
       <c r="M12">
-        <v>1.038681954593115</v>
+        <v>1.000784351794649</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026020246394874</v>
+        <v>0.9841507314866981</v>
       </c>
       <c r="D13">
-        <v>1.031746170803227</v>
+        <v>1.006087445618674</v>
       </c>
       <c r="E13">
-        <v>1.026392739624841</v>
+        <v>0.9942534360457167</v>
       </c>
       <c r="F13">
-        <v>1.035125742883551</v>
+        <v>0.9856691636010391</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034927375764079</v>
+        <v>1.036433372279381</v>
       </c>
       <c r="J13">
-        <v>1.032721358377353</v>
+        <v>1.014546207379203</v>
       </c>
       <c r="K13">
-        <v>1.035364617613292</v>
+        <v>1.021055296374661</v>
       </c>
       <c r="L13">
-        <v>1.030031542747041</v>
+        <v>1.009447158439678</v>
       </c>
       <c r="M13">
-        <v>1.038731459029403</v>
+        <v>1.001031191709291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026171021569496</v>
+        <v>0.9849579352862</v>
       </c>
       <c r="D14">
-        <v>1.031860473118963</v>
+        <v>1.006675032464234</v>
       </c>
       <c r="E14">
-        <v>1.026519907911588</v>
+        <v>0.9948828987060406</v>
       </c>
       <c r="F14">
-        <v>1.035320323969264</v>
+        <v>0.9866419976142112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034966182213724</v>
+        <v>1.036689214020589</v>
       </c>
       <c r="J14">
-        <v>1.032810581358449</v>
+        <v>1.015006722388024</v>
       </c>
       <c r="K14">
-        <v>1.03544672868829</v>
+        <v>1.021488961035014</v>
       </c>
       <c r="L14">
-        <v>1.030126275552229</v>
+        <v>1.009919062087517</v>
       </c>
       <c r="M14">
-        <v>1.038893672646398</v>
+        <v>1.001837607022458</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026263931333715</v>
+        <v>0.9854535685426701</v>
       </c>
       <c r="D15">
-        <v>1.03193090839546</v>
+        <v>1.007035930964317</v>
       </c>
       <c r="E15">
-        <v>1.026598280576078</v>
+        <v>0.9952695831552285</v>
       </c>
       <c r="F15">
-        <v>1.035440232534148</v>
+        <v>0.9872393095991765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034990069526143</v>
+        <v>1.036846116060244</v>
       </c>
       <c r="J15">
-        <v>1.032865551099377</v>
+        <v>1.015289435229692</v>
       </c>
       <c r="K15">
-        <v>1.035497312910129</v>
+        <v>1.021755171470907</v>
       </c>
       <c r="L15">
-        <v>1.03018464713118</v>
+        <v>1.010208835827234</v>
       </c>
       <c r="M15">
-        <v>1.038993624427068</v>
+        <v>1.002332662738505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026804891779017</v>
+        <v>0.9883127379078855</v>
       </c>
       <c r="D16">
-        <v>1.032341021422767</v>
+        <v>1.009119515746624</v>
       </c>
       <c r="E16">
-        <v>1.02705474893168</v>
+        <v>0.9975030421414888</v>
       </c>
       <c r="F16">
-        <v>1.036138468518781</v>
+        <v>0.9906847915927073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035128758206313</v>
+        <v>1.037748360175295</v>
       </c>
       <c r="J16">
-        <v>1.033185444868836</v>
+        <v>1.016919554527791</v>
       </c>
       <c r="K16">
-        <v>1.035791625472624</v>
+        <v>1.023289843922965</v>
       </c>
       <c r="L16">
-        <v>1.030524448669343</v>
+        <v>1.011880715968637</v>
       </c>
       <c r="M16">
-        <v>1.03957548767154</v>
+        <v>1.005187117742042</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027144384392313</v>
+        <v>0.990084178667425</v>
       </c>
       <c r="D17">
-        <v>1.032598404797286</v>
+        <v>1.010411839238194</v>
       </c>
       <c r="E17">
-        <v>1.027341347404526</v>
+        <v>0.998889212699598</v>
       </c>
       <c r="F17">
-        <v>1.036576731778477</v>
+        <v>0.9928193450419389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035215448967314</v>
+        <v>1.038304801018111</v>
       </c>
       <c r="J17">
-        <v>1.033386057561738</v>
+        <v>1.01792881350934</v>
       </c>
       <c r="K17">
-        <v>1.035976142759833</v>
+        <v>1.024239741223266</v>
       </c>
       <c r="L17">
-        <v>1.030737643641957</v>
+        <v>1.012916746112216</v>
       </c>
       <c r="M17">
-        <v>1.039940563406036</v>
+        <v>1.006954459558774</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027342462856222</v>
+        <v>0.9911096922553125</v>
       </c>
       <c r="D18">
-        <v>1.032748578664415</v>
+        <v>1.011160471409299</v>
       </c>
       <c r="E18">
-        <v>1.027508611528277</v>
+        <v>0.9996925328663482</v>
       </c>
       <c r="F18">
-        <v>1.036832463482204</v>
+        <v>0.9940550434012017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035265904145086</v>
+        <v>1.038626000441075</v>
       </c>
       <c r="J18">
-        <v>1.03350305387373</v>
+        <v>1.018512823732082</v>
       </c>
       <c r="K18">
-        <v>1.036083733227159</v>
+        <v>1.024789301740521</v>
       </c>
       <c r="L18">
-        <v>1.030862013057122</v>
+        <v>1.013516575704849</v>
       </c>
       <c r="M18">
-        <v>1.040153537574125</v>
+        <v>1.007977189695667</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027410012324949</v>
+        <v>0.9914580723213912</v>
       </c>
       <c r="D19">
-        <v>1.032799791915659</v>
+        <v>1.01141487203177</v>
       </c>
       <c r="E19">
-        <v>1.027565660524345</v>
+        <v>0.9999655727079052</v>
       </c>
       <c r="F19">
-        <v>1.036919678361293</v>
+        <v>0.9944748237911836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035283089370402</v>
+        <v>1.03873495671175</v>
       </c>
       <c r="J19">
-        <v>1.033542943565755</v>
+        <v>1.018711173509909</v>
       </c>
       <c r="K19">
-        <v>1.036120412771539</v>
+        <v>1.024975933935376</v>
       </c>
       <c r="L19">
-        <v>1.030904422561995</v>
+        <v>1.013720353817799</v>
       </c>
       <c r="M19">
-        <v>1.040226161619033</v>
+        <v>1.008324555795886</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02710795402315</v>
+        <v>0.989894924728515</v>
       </c>
       <c r="D20">
-        <v>1.032570785177029</v>
+        <v>1.010273721414265</v>
       </c>
       <c r="E20">
-        <v>1.027310588151677</v>
+        <v>0.9987410314697321</v>
       </c>
       <c r="F20">
-        <v>1.036529699915532</v>
+        <v>0.9925913008683164</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035206159251109</v>
+        <v>1.038245449483498</v>
       </c>
       <c r="J20">
-        <v>1.03336453554008</v>
+        <v>1.017821015386727</v>
       </c>
       <c r="K20">
-        <v>1.035956349449992</v>
+        <v>1.024138293758846</v>
       </c>
       <c r="L20">
-        <v>1.030714768135552</v>
+        <v>1.012806054504006</v>
       </c>
       <c r="M20">
-        <v>1.039901390955656</v>
+        <v>1.006765686418275</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026126619494327</v>
+        <v>0.9847205916909785</v>
       </c>
       <c r="D21">
-        <v>1.03182681188188</v>
+        <v>1.006502239578649</v>
       </c>
       <c r="E21">
-        <v>1.026482455833691</v>
+        <v>0.9946977776350647</v>
       </c>
       <c r="F21">
-        <v>1.035263020368811</v>
+        <v>0.9863559578621754</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034954759393296</v>
+        <v>1.036614027575657</v>
       </c>
       <c r="J21">
-        <v>1.032784308138133</v>
+        <v>1.014871326518867</v>
       </c>
       <c r="K21">
-        <v>1.035422550505091</v>
+        <v>1.021361463334912</v>
       </c>
       <c r="L21">
-        <v>1.030098378356388</v>
+        <v>1.00978030336555</v>
       </c>
       <c r="M21">
-        <v>1.03884590339982</v>
+        <v>1.001600514843206</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025510147409958</v>
+        <v>0.9813930717907241</v>
       </c>
       <c r="D22">
-        <v>1.031359475136302</v>
+        <v>1.004081796377908</v>
       </c>
       <c r="E22">
-        <v>1.025962651977069</v>
+        <v>0.9921058208623946</v>
       </c>
       <c r="F22">
-        <v>1.034467513725503</v>
+        <v>0.982345293383117</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034795706179134</v>
+        <v>1.035556558772904</v>
       </c>
       <c r="J22">
-        <v>1.03241934332975</v>
+        <v>1.012972236561225</v>
       </c>
       <c r="K22">
-        <v>1.035086618193413</v>
+        <v>1.019572823458688</v>
       </c>
       <c r="L22">
-        <v>1.029710984693766</v>
+        <v>1.007835302024673</v>
       </c>
       <c r="M22">
-        <v>1.038182565035536</v>
+        <v>0.9982747984169067</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025836900127369</v>
+        <v>0.9831643146643128</v>
       </c>
       <c r="D23">
-        <v>1.031607178063857</v>
+        <v>1.005369714882339</v>
       </c>
       <c r="E23">
-        <v>1.026238126326933</v>
+        <v>0.9934847314684251</v>
       </c>
       <c r="F23">
-        <v>1.034889140925182</v>
+        <v>0.9844802823946972</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034880116790506</v>
+        <v>1.036120222781847</v>
       </c>
       <c r="J23">
-        <v>1.032612832252006</v>
+        <v>1.013983319629686</v>
       </c>
       <c r="K23">
-        <v>1.035264731491643</v>
+        <v>1.020525177686331</v>
       </c>
       <c r="L23">
-        <v>1.029916334349735</v>
+        <v>1.008870538641931</v>
       </c>
       <c r="M23">
-        <v>1.038534185742593</v>
+        <v>1.000045481991715</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027124415159226</v>
+        <v>0.9899804643024829</v>
       </c>
       <c r="D24">
-        <v>1.032583265151041</v>
+        <v>1.010336146826484</v>
       </c>
       <c r="E24">
-        <v>1.027324486637313</v>
+        <v>0.9988080042589883</v>
       </c>
       <c r="F24">
-        <v>1.0365509512804</v>
+        <v>0.9926943730474054</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035210357214156</v>
+        <v>1.038272278265294</v>
       </c>
       <c r="J24">
-        <v>1.033374260469977</v>
+        <v>1.017869739135687</v>
       </c>
       <c r="K24">
-        <v>1.035965293304025</v>
+        <v>1.024184147380061</v>
       </c>
       <c r="L24">
-        <v>1.03072510454169</v>
+        <v>1.012856085064336</v>
       </c>
       <c r="M24">
-        <v>1.039919091201939</v>
+        <v>1.006851009948867</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028620782295031</v>
+        <v>0.9975886293300741</v>
       </c>
       <c r="D25">
-        <v>1.033717778741112</v>
+        <v>1.015898236840211</v>
       </c>
       <c r="E25">
-        <v>1.028588911091332</v>
+        <v>1.00478224953063</v>
       </c>
       <c r="F25">
-        <v>1.038483317284896</v>
+        <v>1.001862131359765</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035589262906715</v>
+        <v>1.04063830792189</v>
       </c>
       <c r="J25">
-        <v>1.03425715866987</v>
+        <v>1.022197419125545</v>
       </c>
       <c r="K25">
-        <v>1.036776866265035</v>
+        <v>1.028254666240605</v>
       </c>
       <c r="L25">
-        <v>1.03166427657412</v>
+        <v>1.017306778088145</v>
       </c>
       <c r="M25">
-        <v>1.041527437474784</v>
+        <v>1.014431608751189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003435200052893</v>
+        <v>1.00274843753773</v>
       </c>
       <c r="D2">
-        <v>1.020185237743593</v>
+        <v>1.021428593223717</v>
       </c>
       <c r="E2">
-        <v>1.009397277373847</v>
+        <v>1.017486383975611</v>
       </c>
       <c r="F2">
-        <v>1.008909198278688</v>
+        <v>1.02578635392805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042426393957616</v>
+        <v>1.04355842119349</v>
       </c>
       <c r="J2">
-        <v>1.025513648102383</v>
+        <v>1.024847252923113</v>
       </c>
       <c r="K2">
-        <v>1.031370344183187</v>
+        <v>1.032597252527556</v>
       </c>
       <c r="L2">
-        <v>1.020727227424614</v>
+        <v>1.028707364589364</v>
       </c>
       <c r="M2">
-        <v>1.020245793660636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.036897763024951</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037774489663153</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.034119297255986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007561487284761</v>
+        <v>1.006608377478019</v>
       </c>
       <c r="D3">
-        <v>1.023217247484617</v>
+        <v>1.023889693226437</v>
       </c>
       <c r="E3">
-        <v>1.012667446661393</v>
+        <v>1.020535893950697</v>
       </c>
       <c r="F3">
-        <v>1.013885090834324</v>
+        <v>1.028782541805085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043670339808285</v>
+        <v>1.044140741786481</v>
       </c>
       <c r="J3">
-        <v>1.027848119733693</v>
+        <v>1.026920498374152</v>
       </c>
       <c r="K3">
-        <v>1.033561433730164</v>
+        <v>1.034225760226311</v>
       </c>
       <c r="L3">
-        <v>1.023140770744409</v>
+        <v>1.030912587595672</v>
       </c>
       <c r="M3">
-        <v>1.024343339229062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.039059927833035</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039485702595271</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03526812701435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010179443360333</v>
+        <v>1.00906206247571</v>
       </c>
       <c r="D4">
-        <v>1.025143593651711</v>
+        <v>1.025456885997133</v>
       </c>
       <c r="E4">
-        <v>1.014748011507965</v>
+        <v>1.022480592214502</v>
       </c>
       <c r="F4">
-        <v>1.017043526242176</v>
+        <v>1.030695501510807</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044451038673446</v>
+        <v>1.044500687534495</v>
       </c>
       <c r="J4">
-        <v>1.029326294229587</v>
+        <v>1.028236766456683</v>
       </c>
       <c r="K4">
-        <v>1.03494774071787</v>
+        <v>1.035257478584224</v>
       </c>
       <c r="L4">
-        <v>1.024671640858116</v>
+        <v>1.032315061042002</v>
       </c>
       <c r="M4">
-        <v>1.026940512323244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.04043705323732</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040575605729747</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035998549518552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011267991308822</v>
+        <v>1.010086450143359</v>
       </c>
       <c r="D5">
-        <v>1.025945165590309</v>
+        <v>1.026113924819611</v>
       </c>
       <c r="E5">
-        <v>1.015614461355694</v>
+        <v>1.023294114685168</v>
       </c>
       <c r="F5">
-        <v>1.01835720176234</v>
+        <v>1.031495787376042</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044773577758083</v>
+        <v>1.044649905583118</v>
       </c>
       <c r="J5">
-        <v>1.029940187002113</v>
+        <v>1.028787215737224</v>
       </c>
       <c r="K5">
-        <v>1.035523212918408</v>
+        <v>1.035690108478892</v>
       </c>
       <c r="L5">
-        <v>1.02530804770914</v>
+        <v>1.032901537748771</v>
       </c>
       <c r="M5">
-        <v>1.028019831688182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.041012929798208</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041031373224513</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036311664864228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011450068917425</v>
+        <v>1.010261590925921</v>
       </c>
       <c r="D6">
-        <v>1.026079275521142</v>
+        <v>1.026228899816481</v>
       </c>
       <c r="E6">
-        <v>1.015759467663341</v>
+        <v>1.023433506810942</v>
       </c>
       <c r="F6">
-        <v>1.018576960363465</v>
+        <v>1.031632333519974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044827404879428</v>
+        <v>1.044677022704291</v>
       </c>
       <c r="J6">
-        <v>1.030042826869081</v>
+        <v>1.02888293843228</v>
       </c>
       <c r="K6">
-        <v>1.035619413071167</v>
+        <v>1.03576739257767</v>
       </c>
       <c r="L6">
-        <v>1.025414488791949</v>
+        <v>1.033002826406468</v>
       </c>
       <c r="M6">
-        <v>1.028200331837344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.041111819748525</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041109637927929</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036375099452867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010194035367843</v>
+        <v>1.009085827366237</v>
       </c>
       <c r="D7">
-        <v>1.0251543364425</v>
+        <v>1.025479099262185</v>
       </c>
       <c r="E7">
-        <v>1.014759621003937</v>
+        <v>1.022500056104445</v>
       </c>
       <c r="F7">
-        <v>1.017061134461137</v>
+        <v>1.030713004588673</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044455370553532</v>
+        <v>1.0445088639186</v>
       </c>
       <c r="J7">
-        <v>1.029334526403784</v>
+        <v>1.028253931358965</v>
       </c>
       <c r="K7">
-        <v>1.034955458748938</v>
+        <v>1.035276538326603</v>
       </c>
       <c r="L7">
-        <v>1.024680172455863</v>
+        <v>1.032331389677241</v>
       </c>
       <c r="M7">
-        <v>1.026954982908836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.040451478363835</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040587022248919</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036032239958209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004840726869913</v>
+        <v>1.004074775102335</v>
       </c>
       <c r="D8">
-        <v>1.021217438696601</v>
+        <v>1.022282285342943</v>
       </c>
       <c r="E8">
-        <v>1.010509952516875</v>
+        <v>1.01853375379261</v>
       </c>
       <c r="F8">
-        <v>1.010603853609182</v>
+        <v>1.026812883652101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042851886538654</v>
+        <v>1.043766416647873</v>
       </c>
       <c r="J8">
-        <v>1.02630943576576</v>
+        <v>1.025565433493522</v>
       </c>
       <c r="K8">
-        <v>1.032117475972378</v>
+        <v>1.033168656354622</v>
       </c>
       <c r="L8">
-        <v>1.021549417189138</v>
+        <v>1.029468392140071</v>
       </c>
       <c r="M8">
-        <v>1.021642079446933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.037641504488236</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038363113159168</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03454636992891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9949893731269247</v>
+        <v>0.9948769875597345</v>
       </c>
       <c r="D9">
-        <v>1.013995851779872</v>
+        <v>1.016427287099199</v>
       </c>
       <c r="E9">
-        <v>1.002737287423445</v>
+        <v>1.011303317856273</v>
       </c>
       <c r="F9">
-        <v>0.9987299075785774</v>
+        <v>1.01972372461793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03983464536915</v>
+        <v>1.042316978843871</v>
       </c>
       <c r="J9">
-        <v>1.020720318808934</v>
+        <v>1.020611958736031</v>
       </c>
       <c r="K9">
-        <v>1.026865865085638</v>
+        <v>1.029259349055063</v>
       </c>
       <c r="L9">
-        <v>1.015786109614366</v>
+        <v>1.024215630441272</v>
       </c>
       <c r="M9">
-        <v>1.011843624811468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.032504702778327</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034297655306573</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031779000764562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9881114864184348</v>
+        <v>0.9885716915959252</v>
       </c>
       <c r="D10">
-        <v>1.008972764031759</v>
+        <v>1.012442450428108</v>
       </c>
       <c r="E10">
-        <v>0.9973456772714995</v>
+        <v>1.006425845315034</v>
       </c>
       <c r="F10">
-        <v>0.9904422817688415</v>
+        <v>1.015004202478114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037685017296018</v>
+        <v>1.041287166067899</v>
       </c>
       <c r="J10">
-        <v>1.01680485838226</v>
+        <v>1.017246187144655</v>
       </c>
       <c r="K10">
-        <v>1.023181880512162</v>
+        <v>1.026590628757698</v>
       </c>
       <c r="L10">
-        <v>1.01176302228643</v>
+        <v>1.020680040359009</v>
       </c>
       <c r="M10">
-        <v>1.004986275012317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.029107734767482</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031661021784102</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029908952636142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.98505264404615</v>
+        <v>0.986457059433879</v>
       </c>
       <c r="D11">
-        <v>1.006743988626497</v>
+        <v>1.011182061349778</v>
       </c>
       <c r="E11">
-        <v>0.9949567778560113</v>
+        <v>1.005142816988417</v>
       </c>
       <c r="F11">
-        <v>0.9867561369375849</v>
+        <v>1.014171443370145</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036719206990101</v>
+        <v>1.041041237280715</v>
       </c>
       <c r="J11">
-        <v>1.015060747884097</v>
+        <v>1.01640429901936</v>
       </c>
       <c r="K11">
-        <v>1.021539834094669</v>
+        <v>1.025896137040131</v>
       </c>
       <c r="L11">
-        <v>1.009974432804852</v>
+        <v>1.019968394667431</v>
       </c>
       <c r="M11">
-        <v>1.001932210910188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.028830965671947</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031881543711909</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02945099931039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9839036879804903</v>
+        <v>0.9859214759549381</v>
       </c>
       <c r="D12">
-        <v>1.005907661182511</v>
+        <v>1.010896155923291</v>
       </c>
       <c r="E12">
-        <v>0.9940608650202143</v>
+        <v>1.004986978526007</v>
       </c>
       <c r="F12">
-        <v>0.9853714204492303</v>
+        <v>1.014316847742277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036354997332777</v>
+        <v>1.041029871017886</v>
       </c>
       <c r="J12">
-        <v>1.014405248043369</v>
+        <v>1.016333850909265</v>
       </c>
       <c r="K12">
-        <v>1.020922548231631</v>
+        <v>1.025817538319893</v>
       </c>
       <c r="L12">
-        <v>1.009302740946199</v>
+        <v>1.020019255530529</v>
       </c>
       <c r="M12">
-        <v>1.000784351794649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.029174805301169</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P12">
+        <v>1.032482052483914</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029395426696277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9841507314866981</v>
+        <v>0.9865769537517919</v>
       </c>
       <c r="D13">
-        <v>1.006087445618674</v>
+        <v>1.011355155630905</v>
       </c>
       <c r="E13">
-        <v>0.9942534360457167</v>
+        <v>1.005699227700906</v>
       </c>
       <c r="F13">
-        <v>0.9856691636010391</v>
+        <v>1.015244967428787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036433372279381</v>
+        <v>1.041209382431232</v>
       </c>
       <c r="J13">
-        <v>1.014546207379203</v>
+        <v>1.016865725648891</v>
       </c>
       <c r="K13">
-        <v>1.021055296374661</v>
+        <v>1.026224680352172</v>
       </c>
       <c r="L13">
-        <v>1.009447158439678</v>
+        <v>1.020674378088294</v>
       </c>
       <c r="M13">
-        <v>1.001031191709291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.030042738712599</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033446488436751</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029680782563705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849579352862</v>
+        <v>0.9875736593254277</v>
       </c>
       <c r="D14">
-        <v>1.006675032464234</v>
+        <v>1.012014236504344</v>
       </c>
       <c r="E14">
-        <v>0.9948828987060406</v>
+        <v>1.006587707774868</v>
       </c>
       <c r="F14">
-        <v>0.9866419976142112</v>
+        <v>1.016245455037175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036689214020589</v>
+        <v>1.041421428080805</v>
       </c>
       <c r="J14">
-        <v>1.015006722388024</v>
+        <v>1.017509091699203</v>
       </c>
       <c r="K14">
-        <v>1.021488961035014</v>
+        <v>1.026729760176868</v>
       </c>
       <c r="L14">
-        <v>1.009919062087517</v>
+        <v>1.021403257110902</v>
       </c>
       <c r="M14">
-        <v>1.001837607022458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.030883949765963</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03428553211173</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030039330263045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9854535685426701</v>
+        <v>0.9880816692216663</v>
       </c>
       <c r="D15">
-        <v>1.007035930964317</v>
+        <v>1.012343166507583</v>
       </c>
       <c r="E15">
-        <v>0.9952695831552285</v>
+        <v>1.007003670561242</v>
       </c>
       <c r="F15">
-        <v>0.9872393095991765</v>
+        <v>1.016677996530665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036846116060244</v>
+        <v>1.041517528980912</v>
       </c>
       <c r="J15">
-        <v>1.015289435229692</v>
+        <v>1.017804662934008</v>
       </c>
       <c r="K15">
-        <v>1.021755171470907</v>
+        <v>1.026965347393258</v>
       </c>
       <c r="L15">
-        <v>1.010208835827234</v>
+        <v>1.021723505127535</v>
       </c>
       <c r="M15">
-        <v>1.002332662738505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.03122187818271</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034590309506659</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030211812291118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9883127379078855</v>
+        <v>0.9906195317555011</v>
       </c>
       <c r="D16">
-        <v>1.009119515746624</v>
+        <v>1.013937681974285</v>
       </c>
       <c r="E16">
-        <v>0.9975030421414888</v>
+        <v>1.008930784285897</v>
       </c>
       <c r="F16">
-        <v>0.9906847915927073</v>
+        <v>1.018527169805504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037748360175295</v>
+        <v>1.041931464902179</v>
       </c>
       <c r="J16">
-        <v>1.016919554527791</v>
+        <v>1.019132337481526</v>
       </c>
       <c r="K16">
-        <v>1.023289843922965</v>
+        <v>1.028023813584442</v>
       </c>
       <c r="L16">
-        <v>1.011880715968637</v>
+        <v>1.023104431724298</v>
       </c>
       <c r="M16">
-        <v>1.005187117742042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.032534058469917</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035588587152658</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030963383242584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.990084178667425</v>
+        <v>0.9920471215156504</v>
       </c>
       <c r="D17">
-        <v>1.010411839238194</v>
+        <v>1.014818456418072</v>
       </c>
       <c r="E17">
-        <v>0.998889212699598</v>
+        <v>1.009946171910355</v>
       </c>
       <c r="F17">
-        <v>0.9928193450419389</v>
+        <v>1.019418204578812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038304801018111</v>
+        <v>1.042136004029127</v>
       </c>
       <c r="J17">
-        <v>1.01792881350934</v>
+        <v>1.01981438534551</v>
       </c>
       <c r="K17">
-        <v>1.024239741223266</v>
+        <v>1.028571559043627</v>
       </c>
       <c r="L17">
-        <v>1.012916746112216</v>
+        <v>1.023782027548689</v>
       </c>
       <c r="M17">
-        <v>1.006954459558774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.033094118297951</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035901727725497</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031353270045826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9911096922553125</v>
+        <v>0.9926355429650805</v>
       </c>
       <c r="D18">
-        <v>1.011160471409299</v>
+        <v>1.015148904329134</v>
       </c>
       <c r="E18">
-        <v>0.9996925328663482</v>
+        <v>1.010235712975008</v>
       </c>
       <c r="F18">
-        <v>0.9940550434012017</v>
+        <v>1.01950644990574</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038626000441075</v>
+        <v>1.042172870405115</v>
       </c>
       <c r="J18">
-        <v>1.018512823732082</v>
+        <v>1.019979686990373</v>
       </c>
       <c r="K18">
-        <v>1.024789301740521</v>
+        <v>1.028711172833252</v>
       </c>
       <c r="L18">
-        <v>1.013516575704849</v>
+        <v>1.023880073121147</v>
       </c>
       <c r="M18">
-        <v>1.007977189695667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.032996762178048</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035585992664873</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031440269975341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9914580723213912</v>
+        <v>0.9924809925441429</v>
       </c>
       <c r="D19">
-        <v>1.01141487203177</v>
+        <v>1.015005151749423</v>
       </c>
       <c r="E19">
-        <v>0.9999655727079052</v>
+        <v>1.009876744528952</v>
       </c>
       <c r="F19">
-        <v>0.9944748237911836</v>
+        <v>1.018867093066819</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03873495671175</v>
+        <v>1.042071481189395</v>
       </c>
       <c r="J19">
-        <v>1.018711173509909</v>
+        <v>1.01969479159649</v>
       </c>
       <c r="K19">
-        <v>1.024975933935376</v>
+        <v>1.028506625422715</v>
       </c>
       <c r="L19">
-        <v>1.013720353817799</v>
+        <v>1.023463501967784</v>
       </c>
       <c r="M19">
-        <v>1.008324555795886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.032305072378657</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034711782144501</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03130208457282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.989894924728515</v>
+        <v>0.9902336872804087</v>
       </c>
       <c r="D20">
-        <v>1.010273721414265</v>
+        <v>1.013508781655036</v>
       </c>
       <c r="E20">
-        <v>0.9987410314697321</v>
+        <v>1.007712876200437</v>
       </c>
       <c r="F20">
-        <v>0.9925913008683164</v>
+        <v>1.016247366947856</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038245449483498</v>
+        <v>1.041574218360698</v>
       </c>
       <c r="J20">
-        <v>1.017821015386727</v>
+        <v>1.01814634523857</v>
       </c>
       <c r="K20">
-        <v>1.024138293758846</v>
+        <v>1.027318182868903</v>
       </c>
       <c r="L20">
-        <v>1.012806054504006</v>
+        <v>1.021621446351918</v>
       </c>
       <c r="M20">
-        <v>1.006765686418275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.030010418117629</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032364770153491</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030465749460912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9847205916909785</v>
+        <v>0.9853705081491563</v>
       </c>
       <c r="D21">
-        <v>1.006502239578649</v>
+        <v>1.01042718649048</v>
       </c>
       <c r="E21">
-        <v>0.9946977776350647</v>
+        <v>1.00389810525466</v>
       </c>
       <c r="F21">
-        <v>0.9863559578621754</v>
+        <v>1.012480926367766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036614027575657</v>
+        <v>1.040740666561853</v>
       </c>
       <c r="J21">
-        <v>1.014871326518867</v>
+        <v>1.015492877112914</v>
       </c>
       <c r="K21">
-        <v>1.021361463334912</v>
+        <v>1.025213669246869</v>
       </c>
       <c r="L21">
-        <v>1.00978030336555</v>
+        <v>1.018806001265768</v>
       </c>
       <c r="M21">
-        <v>1.001600514843206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.027229639907845</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030122747961457</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028981012897245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813930717907241</v>
+        <v>0.9822816038999138</v>
       </c>
       <c r="D22">
-        <v>1.004081796377908</v>
+        <v>1.00847204722741</v>
       </c>
       <c r="E22">
-        <v>0.9921058208623946</v>
+        <v>1.001504070771443</v>
       </c>
       <c r="F22">
-        <v>0.982345293383117</v>
+        <v>1.010147078585657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035556558772904</v>
+        <v>1.040203085757386</v>
       </c>
       <c r="J22">
-        <v>1.012972236561225</v>
+        <v>1.013819666374666</v>
       </c>
       <c r="K22">
-        <v>1.019572823458688</v>
+        <v>1.023877518990435</v>
       </c>
       <c r="L22">
-        <v>1.007835302024673</v>
+        <v>1.01704579049522</v>
       </c>
       <c r="M22">
-        <v>0.9982747984169067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.025520164801548</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028769791857763</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028022670332642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831643146643128</v>
+        <v>0.9839155657287236</v>
       </c>
       <c r="D23">
-        <v>1.005369714882339</v>
+        <v>1.009499633219099</v>
       </c>
       <c r="E23">
-        <v>0.9934847314684251</v>
+        <v>1.002768806162433</v>
       </c>
       <c r="F23">
-        <v>0.9844802823946972</v>
+        <v>1.011381273223471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036120222781847</v>
+        <v>1.040484326784954</v>
       </c>
       <c r="J23">
-        <v>1.013983319629686</v>
+        <v>1.014700866791749</v>
       </c>
       <c r="K23">
-        <v>1.020525177686331</v>
+        <v>1.024576712745938</v>
       </c>
       <c r="L23">
-        <v>1.008870538641931</v>
+        <v>1.01797406644556</v>
       </c>
       <c r="M23">
-        <v>1.000045481991715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.026422917615734</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029484271693645</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028507324168719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9899804643024829</v>
+        <v>0.9902342926163566</v>
       </c>
       <c r="D24">
-        <v>1.010336146826484</v>
+        <v>1.013493538222684</v>
       </c>
       <c r="E24">
-        <v>0.9988080042589883</v>
+        <v>1.007678743662201</v>
       </c>
       <c r="F24">
-        <v>0.9926943730474054</v>
+        <v>1.016175785771886</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038272278265294</v>
+        <v>1.041558030150434</v>
       </c>
       <c r="J24">
-        <v>1.017869739135687</v>
+        <v>1.018113517997609</v>
       </c>
       <c r="K24">
-        <v>1.024184147380061</v>
+        <v>1.027287764659144</v>
       </c>
       <c r="L24">
-        <v>1.012856085064336</v>
+        <v>1.021572340622211</v>
       </c>
       <c r="M24">
-        <v>1.006851009948867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.029924668951979</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032255710782119</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030416636724164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9975886293300741</v>
+        <v>0.9973147952111573</v>
       </c>
       <c r="D25">
-        <v>1.015898236840211</v>
+        <v>1.017986750791858</v>
       </c>
       <c r="E25">
-        <v>1.00478224953063</v>
+        <v>1.013214660613609</v>
       </c>
       <c r="F25">
-        <v>1.001862131359765</v>
+        <v>1.021592983231891</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04063830792189</v>
+        <v>1.042717364432801</v>
       </c>
       <c r="J25">
-        <v>1.022197419125545</v>
+        <v>1.021932866365665</v>
       </c>
       <c r="K25">
-        <v>1.028254666240605</v>
+        <v>1.03031211785119</v>
       </c>
       <c r="L25">
-        <v>1.017306778088145</v>
+        <v>1.025611241933764</v>
       </c>
       <c r="M25">
-        <v>1.014431608751189</v>
+        <v>1.033865094673749</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.035374322828944</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032552155350043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00274843753773</v>
+        <v>1.002406883852085</v>
       </c>
       <c r="D2">
-        <v>1.021428593223717</v>
+        <v>1.020911921677191</v>
       </c>
       <c r="E2">
-        <v>1.017486383975611</v>
+        <v>1.017221472440092</v>
       </c>
       <c r="F2">
-        <v>1.02578635392805</v>
+        <v>1.025570162216308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04355842119349</v>
+        <v>1.043358086655228</v>
       </c>
       <c r="J2">
-        <v>1.024847252923113</v>
+        <v>1.024515842987905</v>
       </c>
       <c r="K2">
-        <v>1.032597252527556</v>
+        <v>1.032087409421764</v>
       </c>
       <c r="L2">
-        <v>1.028707364589364</v>
+        <v>1.028445987240339</v>
       </c>
       <c r="M2">
-        <v>1.036897763024951</v>
+        <v>1.036684397167875</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037774489663153</v>
+        <v>1.037605624231359</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034119297255986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033767616332908</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020624331910495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006608377478019</v>
+        <v>1.006154151437029</v>
       </c>
       <c r="D3">
-        <v>1.023889693226437</v>
+        <v>1.023211596857015</v>
       </c>
       <c r="E3">
-        <v>1.020535893950697</v>
+        <v>1.020178271271327</v>
       </c>
       <c r="F3">
-        <v>1.028782541805085</v>
+        <v>1.028492164490985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044140741786481</v>
+        <v>1.04387162209151</v>
       </c>
       <c r="J3">
-        <v>1.026920498374152</v>
+        <v>1.026478442524522</v>
       </c>
       <c r="K3">
-        <v>1.034225760226311</v>
+        <v>1.033555851385522</v>
       </c>
       <c r="L3">
-        <v>1.030912587595672</v>
+        <v>1.0305593166055</v>
       </c>
       <c r="M3">
-        <v>1.039059927833035</v>
+        <v>1.038773013751831</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039485702595271</v>
+        <v>1.039258628980994</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03526812701435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034802986030078</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020918103881461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00906206247571</v>
+        <v>1.008537094344611</v>
       </c>
       <c r="D4">
-        <v>1.025456885997133</v>
+        <v>1.024676819864688</v>
       </c>
       <c r="E4">
-        <v>1.022480592214502</v>
+        <v>1.022064726980393</v>
       </c>
       <c r="F4">
-        <v>1.030695501510807</v>
+        <v>1.030358550054339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044500687534495</v>
+        <v>1.044188071588337</v>
       </c>
       <c r="J4">
-        <v>1.028236766456683</v>
+        <v>1.027724913024838</v>
       </c>
       <c r="K4">
-        <v>1.035257478584224</v>
+        <v>1.034486267715034</v>
       </c>
       <c r="L4">
-        <v>1.032315061042002</v>
+        <v>1.031903948579293</v>
       </c>
       <c r="M4">
-        <v>1.04043705323732</v>
+        <v>1.040103877086414</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040575605729747</v>
+        <v>1.040311919124539</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035998549518552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035461860088656</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021101776437265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010086450143359</v>
+        <v>1.009532170638327</v>
       </c>
       <c r="D5">
-        <v>1.026113924819611</v>
+        <v>1.025291495357317</v>
       </c>
       <c r="E5">
-        <v>1.023294114685168</v>
+        <v>1.022854108044517</v>
       </c>
       <c r="F5">
-        <v>1.031495787376042</v>
+        <v>1.031139538265858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044649905583118</v>
+        <v>1.044319197826577</v>
       </c>
       <c r="J5">
-        <v>1.028787215737224</v>
+        <v>1.028246369801119</v>
       </c>
       <c r="K5">
-        <v>1.035690108478892</v>
+        <v>1.034876768519367</v>
       </c>
       <c r="L5">
-        <v>1.032901537748771</v>
+        <v>1.032466424853961</v>
       </c>
       <c r="M5">
-        <v>1.041012929798208</v>
+        <v>1.040660565503889</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041031373224513</v>
+        <v>1.040752500662425</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036311664864228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035745898546536</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021178704160839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010261590925921</v>
+        <v>1.009702336514858</v>
       </c>
       <c r="D6">
-        <v>1.026228899816481</v>
+        <v>1.025399304581096</v>
       </c>
       <c r="E6">
-        <v>1.023433506810942</v>
+        <v>1.022989397985643</v>
       </c>
       <c r="F6">
-        <v>1.031632333519974</v>
+        <v>1.031272806450859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044677022704291</v>
+        <v>1.04434324033783</v>
       </c>
       <c r="J6">
-        <v>1.02888293843228</v>
+        <v>1.02833716851061</v>
       </c>
       <c r="K6">
-        <v>1.03576739257767</v>
+        <v>1.034946924341417</v>
       </c>
       <c r="L6">
-        <v>1.033002826406468</v>
+        <v>1.03256363416102</v>
       </c>
       <c r="M6">
-        <v>1.041111819748525</v>
+        <v>1.040756195223646</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041109637927929</v>
+        <v>1.040828185143356</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036375099452867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035805163427738</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021193023622382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009085827366237</v>
+        <v>1.008560235958812</v>
       </c>
       <c r="D7">
-        <v>1.025479099262185</v>
+        <v>1.024698225774238</v>
       </c>
       <c r="E7">
-        <v>1.022500056104445</v>
+        <v>1.022083664612547</v>
       </c>
       <c r="F7">
-        <v>1.030713004588673</v>
+        <v>1.03037563470819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0445088639186</v>
+        <v>1.044195863676734</v>
       </c>
       <c r="J7">
-        <v>1.028253931358965</v>
+        <v>1.027741464602991</v>
       </c>
       <c r="K7">
-        <v>1.035276538326603</v>
+        <v>1.034504525842462</v>
       </c>
       <c r="L7">
-        <v>1.032331389677241</v>
+        <v>1.031919755160622</v>
       </c>
       <c r="M7">
-        <v>1.040451478363835</v>
+        <v>1.040117887060734</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040587022248919</v>
+        <v>1.040323007082681</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036032239958209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035496987040927</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021106815105454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004074775102335</v>
+        <v>1.003694347221207</v>
       </c>
       <c r="D8">
-        <v>1.022282285342943</v>
+        <v>1.021710193727466</v>
       </c>
       <c r="E8">
-        <v>1.01853375379261</v>
+        <v>1.018236843978576</v>
       </c>
       <c r="F8">
-        <v>1.026812883652101</v>
+        <v>1.026571084277681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043766416647873</v>
+        <v>1.043542417184573</v>
       </c>
       <c r="J8">
-        <v>1.025565433493522</v>
+        <v>1.025195924395381</v>
       </c>
       <c r="K8">
-        <v>1.033168656354622</v>
+        <v>1.03260390254788</v>
       </c>
       <c r="L8">
-        <v>1.029468392140071</v>
+        <v>1.029175324442273</v>
       </c>
       <c r="M8">
-        <v>1.037641504488236</v>
+        <v>1.037402771180505</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038363113159168</v>
+        <v>1.038174171165414</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03454636992891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034158134039351</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020729936431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948769875597345</v>
+        <v>0.9947704968974078</v>
       </c>
       <c r="D9">
-        <v>1.016427287099199</v>
+        <v>1.016243519287034</v>
       </c>
       <c r="E9">
-        <v>1.011303317856273</v>
+        <v>1.011231509920095</v>
       </c>
       <c r="F9">
-        <v>1.01972372461793</v>
+        <v>1.019662255656315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042316978843871</v>
+        <v>1.042258187914237</v>
       </c>
       <c r="J9">
-        <v>1.020611958736031</v>
+        <v>1.020509283597008</v>
       </c>
       <c r="K9">
-        <v>1.029259349055063</v>
+        <v>1.029078441496218</v>
       </c>
       <c r="L9">
-        <v>1.024215630441272</v>
+        <v>1.024144954543502</v>
       </c>
       <c r="M9">
-        <v>1.032504702778327</v>
+        <v>1.032444182521876</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034297655306573</v>
+        <v>1.034249757162872</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031779000764562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03166189859158</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020009194367187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9885716915959252</v>
+        <v>0.9886567179772986</v>
       </c>
       <c r="D10">
-        <v>1.012442450428108</v>
+        <v>1.012526454148182</v>
       </c>
       <c r="E10">
-        <v>1.006425845315034</v>
+        <v>1.006510737558275</v>
       </c>
       <c r="F10">
-        <v>1.015004202478114</v>
+        <v>1.015068552918144</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041287166067899</v>
+        <v>1.041341663892813</v>
       </c>
       <c r="J10">
-        <v>1.017246187144655</v>
+        <v>1.017327728697519</v>
       </c>
       <c r="K10">
-        <v>1.026590628757698</v>
+        <v>1.026673163826288</v>
       </c>
       <c r="L10">
-        <v>1.020680040359009</v>
+        <v>1.020763425303815</v>
       </c>
       <c r="M10">
-        <v>1.029107734767482</v>
+        <v>1.029170967467769</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031661021784102</v>
+        <v>1.031711063676806</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029908952636142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029979811746965</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019509751428174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.986457059433879</v>
+        <v>0.9865899681833527</v>
       </c>
       <c r="D11">
-        <v>1.011182061349778</v>
+        <v>1.011336930601683</v>
       </c>
       <c r="E11">
-        <v>1.005142816988417</v>
+        <v>1.005264813394744</v>
       </c>
       <c r="F11">
-        <v>1.014171443370145</v>
+        <v>1.014266043045576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041041237280715</v>
+        <v>1.041123154479048</v>
       </c>
       <c r="J11">
-        <v>1.01640429901936</v>
+        <v>1.016531460610168</v>
       </c>
       <c r="K11">
-        <v>1.025896137040131</v>
+        <v>1.026048169760174</v>
       </c>
       <c r="L11">
-        <v>1.019968394667431</v>
+        <v>1.020088121369926</v>
       </c>
       <c r="M11">
-        <v>1.028830965671947</v>
+        <v>1.028923845822402</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031881543711909</v>
+        <v>1.031955010833558</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02945099931039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029574222885828</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01941461577844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9859214759549381</v>
+        <v>0.9860570433307763</v>
       </c>
       <c r="D12">
-        <v>1.010896155923291</v>
+        <v>1.01105821092326</v>
       </c>
       <c r="E12">
-        <v>1.004986978526007</v>
+        <v>1.005109512341124</v>
       </c>
       <c r="F12">
-        <v>1.014316847742277</v>
+        <v>1.014412242387305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041029871017886</v>
+        <v>1.041112828840248</v>
       </c>
       <c r="J12">
-        <v>1.016333850909265</v>
+        <v>1.016463444993974</v>
       </c>
       <c r="K12">
-        <v>1.025817538319893</v>
+        <v>1.02597657593873</v>
       </c>
       <c r="L12">
-        <v>1.020019255530529</v>
+        <v>1.020139472511463</v>
       </c>
       <c r="M12">
-        <v>1.029174805301169</v>
+        <v>1.029268439174603</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032482052483914</v>
+        <v>1.032556090386684</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029395426696277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029523604120795</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019426201164879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9865769537517919</v>
+        <v>0.9866800678852791</v>
       </c>
       <c r="D13">
-        <v>1.011355155630905</v>
+        <v>1.011475385307808</v>
       </c>
       <c r="E13">
-        <v>1.005699227700906</v>
+        <v>1.005793906426388</v>
       </c>
       <c r="F13">
-        <v>1.015244967428787</v>
+        <v>1.015318339449913</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041209382431232</v>
+        <v>1.04127294043464</v>
       </c>
       <c r="J13">
-        <v>1.016865725648891</v>
+        <v>1.01696432149106</v>
       </c>
       <c r="K13">
-        <v>1.026224680352172</v>
+        <v>1.026342681433666</v>
       </c>
       <c r="L13">
-        <v>1.020674378088294</v>
+        <v>1.020767275898411</v>
       </c>
       <c r="M13">
-        <v>1.030042738712599</v>
+        <v>1.030114764157438</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033446488436751</v>
+        <v>1.033503425727599</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029680782563705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029779696619292</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019526796196234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875736593254277</v>
+        <v>0.9876384552184541</v>
       </c>
       <c r="D14">
-        <v>1.012014236504344</v>
+        <v>1.012083268222288</v>
       </c>
       <c r="E14">
-        <v>1.006587707774868</v>
+        <v>1.00665030368186</v>
       </c>
       <c r="F14">
-        <v>1.016245455037175</v>
+        <v>1.01629330856873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041421428080805</v>
+        <v>1.041462280513006</v>
       </c>
       <c r="J14">
-        <v>1.017509091699203</v>
+        <v>1.017571090481326</v>
       </c>
       <c r="K14">
-        <v>1.026729760176868</v>
+        <v>1.026797528449206</v>
       </c>
       <c r="L14">
-        <v>1.021403257110902</v>
+        <v>1.021464691187005</v>
       </c>
       <c r="M14">
-        <v>1.030883949765963</v>
+        <v>1.03093093689856</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03428553211173</v>
+        <v>1.034322671161878</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030039330263045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030102859785768</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019637622107886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880816692216663</v>
+        <v>0.9881292991110447</v>
       </c>
       <c r="D15">
-        <v>1.012343166507583</v>
+        <v>1.012388762470483</v>
       </c>
       <c r="E15">
-        <v>1.007003670561242</v>
+        <v>1.007052110088161</v>
       </c>
       <c r="F15">
-        <v>1.016677996530665</v>
+        <v>1.016714542495015</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041517528980912</v>
+        <v>1.04154825697466</v>
       </c>
       <c r="J15">
-        <v>1.017804662934008</v>
+        <v>1.017850255090341</v>
       </c>
       <c r="K15">
-        <v>1.026965347393258</v>
+        <v>1.027010115225264</v>
       </c>
       <c r="L15">
-        <v>1.021723505127535</v>
+        <v>1.021771052682302</v>
       </c>
       <c r="M15">
-        <v>1.03122187818271</v>
+        <v>1.031257767711748</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034590309506659</v>
+        <v>1.034618676162925</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030211812291118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030259649209411</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019685942825442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9906195317555011</v>
+        <v>0.9905921992621352</v>
       </c>
       <c r="D16">
-        <v>1.013937681974285</v>
+        <v>1.013877931577779</v>
       </c>
       <c r="E16">
-        <v>1.008930784285897</v>
+        <v>1.008918491499296</v>
       </c>
       <c r="F16">
-        <v>1.018527169805504</v>
+        <v>1.018514937097114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041931464902179</v>
+        <v>1.041918150450139</v>
       </c>
       <c r="J16">
-        <v>1.019132337481526</v>
+        <v>1.019106115257288</v>
       </c>
       <c r="K16">
-        <v>1.028023813584442</v>
+        <v>1.027965100972429</v>
       </c>
       <c r="L16">
-        <v>1.023104431724298</v>
+        <v>1.023092355189497</v>
       </c>
       <c r="M16">
-        <v>1.032534058469917</v>
+        <v>1.032522035746829</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035588587152658</v>
+        <v>1.03557908426079</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030963383242584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030938350992478</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019883090598702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9920471215156504</v>
+        <v>0.9919823890031628</v>
       </c>
       <c r="D17">
-        <v>1.014818456418072</v>
+        <v>1.014704722077689</v>
       </c>
       <c r="E17">
-        <v>1.009946171910355</v>
+        <v>1.009904050293638</v>
       </c>
       <c r="F17">
-        <v>1.019418204578812</v>
+        <v>1.019381879591162</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042136004029127</v>
+        <v>1.042100755284655</v>
       </c>
       <c r="J17">
-        <v>1.01981438534551</v>
+        <v>1.019752197412363</v>
       </c>
       <c r="K17">
-        <v>1.028571559043627</v>
+        <v>1.028459744729974</v>
       </c>
       <c r="L17">
-        <v>1.023782027548689</v>
+        <v>1.023740625841529</v>
       </c>
       <c r="M17">
-        <v>1.033094118297951</v>
+        <v>1.033058399368375</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035901727725497</v>
+        <v>1.035873492259773</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031353270045826</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031290938778999</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019975704086089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9926355429650805</v>
+        <v>0.9925628347039461</v>
       </c>
       <c r="D18">
-        <v>1.015148904329134</v>
+        <v>1.015021344485586</v>
       </c>
       <c r="E18">
-        <v>1.010235712975008</v>
+        <v>1.010188147140021</v>
       </c>
       <c r="F18">
-        <v>1.01950644990574</v>
+        <v>1.01946545676239</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042172870405115</v>
+        <v>1.042133198730561</v>
       </c>
       <c r="J18">
-        <v>1.019979686990373</v>
+        <v>1.019909783728185</v>
       </c>
       <c r="K18">
-        <v>1.028711172833252</v>
+        <v>1.028585731372821</v>
       </c>
       <c r="L18">
-        <v>1.023880073121147</v>
+        <v>1.023833307068481</v>
       </c>
       <c r="M18">
-        <v>1.032996762178048</v>
+        <v>1.032956442269259</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035585992664873</v>
+        <v>1.035554113469319</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031440269975341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031367165784391</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019981748594299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9924809925441429</v>
+        <v>0.9924257561006691</v>
       </c>
       <c r="D19">
-        <v>1.015005151749423</v>
+        <v>1.014898902432469</v>
       </c>
       <c r="E19">
-        <v>1.009876744528952</v>
+        <v>1.009844776026678</v>
       </c>
       <c r="F19">
-        <v>1.018867093066819</v>
+        <v>1.018838219411412</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042071481189395</v>
+        <v>1.042042560773373</v>
       </c>
       <c r="J19">
-        <v>1.01969479159649</v>
+        <v>1.019641674500202</v>
       </c>
       <c r="K19">
-        <v>1.028506625422715</v>
+        <v>1.028402131745566</v>
       </c>
       <c r="L19">
-        <v>1.023463501967784</v>
+        <v>1.023432068592694</v>
       </c>
       <c r="M19">
-        <v>1.032305072378657</v>
+        <v>1.03227667114059</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034711782144501</v>
+        <v>1.034689319104347</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03130208457282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031244418787455</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01991757742682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9902336872804087</v>
+        <v>0.9902675310010958</v>
       </c>
       <c r="D20">
-        <v>1.013508781655036</v>
+        <v>1.013521976314149</v>
       </c>
       <c r="E20">
-        <v>1.007712876200437</v>
+        <v>1.007755869855057</v>
       </c>
       <c r="F20">
-        <v>1.016247366947856</v>
+        <v>1.016278072325378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041574218360698</v>
+        <v>1.041598600875079</v>
       </c>
       <c r="J20">
-        <v>1.01814634523857</v>
+        <v>1.018178847694161</v>
       </c>
       <c r="K20">
-        <v>1.027318182868903</v>
+        <v>1.027331153435645</v>
       </c>
       <c r="L20">
-        <v>1.021621446351918</v>
+        <v>1.021663698947222</v>
       </c>
       <c r="M20">
-        <v>1.030010418117629</v>
+        <v>1.030040605639063</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032364770153491</v>
+        <v>1.032388660623183</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030465749460912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030491532367344</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019650935794371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9853705081491563</v>
+        <v>0.9855574782602734</v>
       </c>
       <c r="D21">
-        <v>1.01042718649048</v>
+        <v>1.010651866959669</v>
       </c>
       <c r="E21">
-        <v>1.00389810525466</v>
+        <v>1.004066500797778</v>
       </c>
       <c r="F21">
-        <v>1.012480926367766</v>
+        <v>1.012612340996508</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040740666561853</v>
+        <v>1.040854835628421</v>
       </c>
       <c r="J21">
-        <v>1.015492877112914</v>
+        <v>1.015671696738118</v>
       </c>
       <c r="K21">
-        <v>1.025213669246869</v>
+        <v>1.025434207994616</v>
       </c>
       <c r="L21">
-        <v>1.018806001265768</v>
+        <v>1.018971239463475</v>
       </c>
       <c r="M21">
-        <v>1.027229639907845</v>
+        <v>1.027358644553604</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030122747961457</v>
+        <v>1.030224847979734</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028981012897245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029153894786751</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019245248353695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9822816038999138</v>
+        <v>0.9825664688534244</v>
       </c>
       <c r="D22">
-        <v>1.00847204722741</v>
+        <v>1.008830823723658</v>
       </c>
       <c r="E22">
-        <v>1.001504070771443</v>
+        <v>1.001752392142407</v>
       </c>
       <c r="F22">
-        <v>1.010147078585657</v>
+        <v>1.010342770310962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040203085757386</v>
+        <v>1.040374039872746</v>
       </c>
       <c r="J22">
-        <v>1.013819666374666</v>
+        <v>1.014091376461802</v>
       </c>
       <c r="K22">
-        <v>1.023877518990435</v>
+        <v>1.024229346936124</v>
       </c>
       <c r="L22">
-        <v>1.01704579049522</v>
+        <v>1.017289213552834</v>
       </c>
       <c r="M22">
-        <v>1.025520164801548</v>
+        <v>1.025712082142178</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028769791857763</v>
+        <v>1.028921684074201</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028022670332642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028287081597796</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018985739167937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9839155657287236</v>
+        <v>0.9841485833110422</v>
       </c>
       <c r="D23">
-        <v>1.009499633219099</v>
+        <v>1.009787351551106</v>
       </c>
       <c r="E23">
-        <v>1.002768806162433</v>
+        <v>1.002974838539271</v>
       </c>
       <c r="F23">
-        <v>1.011381273223471</v>
+        <v>1.011542944082911</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040484326784954</v>
+        <v>1.040625269934476</v>
       </c>
       <c r="J23">
-        <v>1.014700866791749</v>
+        <v>1.014923445317805</v>
       </c>
       <c r="K23">
-        <v>1.024576712745938</v>
+        <v>1.024859001577449</v>
       </c>
       <c r="L23">
-        <v>1.01797406644556</v>
+        <v>1.018176141756201</v>
       </c>
       <c r="M23">
-        <v>1.026422917615734</v>
+        <v>1.02658155191337</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029484271693645</v>
+        <v>1.029609822050664</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028507324168719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028721618614056</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019120419735968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9902342926163566</v>
+        <v>0.99026978384404</v>
       </c>
       <c r="D24">
-        <v>1.013493538222684</v>
+        <v>1.013508423307975</v>
       </c>
       <c r="E24">
-        <v>1.007678743662201</v>
+        <v>1.007723282936707</v>
       </c>
       <c r="F24">
-        <v>1.016175785771886</v>
+        <v>1.016207684515933</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041558030150434</v>
+        <v>1.041583440514608</v>
       </c>
       <c r="J24">
-        <v>1.018113517997609</v>
+        <v>1.018147604654302</v>
       </c>
       <c r="K24">
-        <v>1.027287764659144</v>
+        <v>1.027302397258022</v>
       </c>
       <c r="L24">
-        <v>1.021572340622211</v>
+        <v>1.021616113118377</v>
       </c>
       <c r="M24">
-        <v>1.029924668951979</v>
+        <v>1.029956030307006</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032255710782119</v>
+        <v>1.032280531479678</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030416636724164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030440915550894</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019639661646659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9973147952111573</v>
+        <v>0.9971347069036507</v>
       </c>
       <c r="D25">
-        <v>1.017986750791858</v>
+        <v>1.01769956889778</v>
       </c>
       <c r="E25">
-        <v>1.013214660613609</v>
+        <v>1.013082409361015</v>
       </c>
       <c r="F25">
-        <v>1.021592983231891</v>
+        <v>1.02148306077614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042717364432801</v>
+        <v>1.042614537490779</v>
       </c>
       <c r="J25">
-        <v>1.021932866365665</v>
+        <v>1.021758885860804</v>
       </c>
       <c r="K25">
-        <v>1.03031211785119</v>
+        <v>1.030029197585731</v>
       </c>
       <c r="L25">
-        <v>1.025611241933764</v>
+        <v>1.025480976437254</v>
       </c>
       <c r="M25">
-        <v>1.033865094673749</v>
+        <v>1.033756788460184</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.035374322828944</v>
+        <v>1.035288605102149</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032552155350043</v>
+        <v>1.032365731650078</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020207968974786</v>
       </c>
     </row>
   </sheetData>
